--- a/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995E6E99-98E4-47AF-8598-FDAAE187461F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438BD0D4-0B1A-40D3-8AB2-D43C3FB74C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="540" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1050" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="273">
   <si>
     <t>desc</t>
   </si>
@@ -2176,6 +2176,192 @@
     <t>tea_flavor</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>プリン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お店</t>
+    <rPh sb="1" eb="2">
+      <t>ミセ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>石コレクター</t>
+    <rPh sb="0" eb="1">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローズヒップ婦人</t>
+    <rPh sb="6" eb="8">
+      <t>フジン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぶどう好きのアイゼル</t>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カモミール婦人</t>
+    <rPh sb="5" eb="7">
+      <t>フジン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>近所のおじいさん</t>
+    <rPh sb="0" eb="2">
+      <t>キンジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パティシエ協会</t>
+    <rPh sb="5" eb="7">
+      <t>キョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クララおばさん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スプリング商店街</t>
+    <rPh sb="5" eb="8">
+      <t>ショウテンガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>くるくるじいさん</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>お菓子学校</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>とある貴族</t>
+    <rPh sb="3" eb="5">
+      <t>キゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>謎のマスク男</t>
+    <rPh sb="0" eb="1">
+      <t>ナゾ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベルガモット婦人</t>
+    <rPh sb="6" eb="8">
+      <t>フジン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メイド学校の先生</t>
+    <rPh sb="3" eb="5">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>男性貿易商</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ボウエキショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バナナ好きメイド</t>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東洋の貿易商</t>
+    <rPh sb="0" eb="2">
+      <t>トウヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ボウエキショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダージリン婦人</t>
+    <rPh sb="5" eb="7">
+      <t>フジン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>老いた紳士</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アマクサ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あるご婦人の方のお茶会に、&lt;color=#FF78B4&gt;クッキー&lt;/color&gt;がほしいそうよ。
+さくさく感にうるさいお客様だけど.. 報酬は高いみたい。</t>
+    <rPh sb="3" eb="5">
+      <t>フジン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チャカイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>キャクサマ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ホウシュウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -2622,9 +2808,9 @@
   <dimension ref="A1:AR54"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="AK54" sqref="AK54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2896,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL2" s="7">
         <v>0</v>
@@ -3032,7 +3218,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL3" s="2">
         <v>0</v>
@@ -3168,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL4" s="2">
         <v>0</v>
@@ -3304,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL5" s="2">
         <v>0</v>
@@ -3440,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL6" s="2">
         <v>0</v>
@@ -3576,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL7" s="2">
         <v>0</v>
@@ -3712,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL8" s="2">
         <v>0</v>
@@ -3848,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL9" s="2">
         <v>0</v>
@@ -3984,7 +4170,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="2">
         <v>0</v>
@@ -4392,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL13" s="3">
         <v>0</v>
@@ -4528,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="3">
         <v>0</v>
@@ -4664,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="3">
         <v>0</v>
@@ -4800,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL16" s="3">
         <v>0</v>
@@ -4936,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL17" s="3">
         <v>0</v>
@@ -5072,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL18" s="3">
         <v>0</v>
@@ -5208,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL19" s="3">
         <v>0</v>
@@ -5344,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL20" s="3">
         <v>0</v>
@@ -5480,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="3">
         <v>0</v>
@@ -5616,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL22" s="3">
         <v>0</v>
@@ -5752,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL23" s="2">
         <v>0</v>
@@ -5888,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL24" s="2">
         <v>0</v>
@@ -6024,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL25" s="2">
         <v>0</v>
@@ -6160,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL26" s="2">
         <v>0</v>
@@ -6296,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL27" s="2">
         <v>0</v>
@@ -6432,7 +6618,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL28" s="2">
         <v>0</v>
@@ -6568,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL29" s="2">
         <v>0</v>
@@ -6704,7 +6890,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL30" s="2">
         <v>0</v>
@@ -6840,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL31" s="2">
         <v>0</v>
@@ -6976,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL32" s="2">
         <v>0</v>
@@ -7112,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL33" s="2">
         <v>0</v>
@@ -7248,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL34" s="2">
         <v>0</v>
@@ -7384,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL35" s="2">
         <v>0</v>
@@ -7520,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL36" s="2">
         <v>0</v>
@@ -7656,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL37" s="2">
         <v>0</v>
@@ -7792,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL38" s="2">
         <v>0</v>
@@ -7928,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL39" s="2">
         <v>0</v>
@@ -8064,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL40" s="2">
         <v>0</v>
@@ -8200,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL41" s="2">
         <v>0</v>
@@ -8336,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL42" s="2">
         <v>0</v>
@@ -8472,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL43" s="2">
         <v>0</v>
@@ -8608,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL44" s="2">
         <v>0</v>
@@ -8744,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL45" s="2">
         <v>0</v>
@@ -8880,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL46" s="2">
         <v>0</v>
@@ -9016,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL47" s="2">
         <v>0</v>
@@ -9152,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL48" s="2">
         <v>0</v>
@@ -9288,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL49" s="2">
         <v>0</v>
@@ -9424,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL50" s="2">
         <v>0</v>
@@ -9560,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL51" s="2">
         <v>0</v>
@@ -9968,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL54" s="2">
         <v>0</v>
@@ -10006,10 +10192,10 @@
   </sheetPr>
   <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AL9" sqref="AL9"/>
+      <selection pane="bottomLeft" activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10281,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL2" s="7">
         <v>0</v>
@@ -10417,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL3" s="2">
         <v>0</v>
@@ -10553,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AL4" s="2">
         <v>0</v>
@@ -10565,7 +10751,7 @@
         <v>10</v>
       </c>
       <c r="AO4" s="19" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AP4" s="5" t="s">
         <v>86</v>
@@ -10689,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL5" s="2">
         <v>0</v>
@@ -10701,7 +10887,7 @@
         <v>10</v>
       </c>
       <c r="AO5" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AP5" s="5" t="s">
         <v>36</v>
@@ -10825,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AL6" s="2">
         <v>0</v>
@@ -10837,7 +11023,7 @@
         <v>10</v>
       </c>
       <c r="AO6" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AP6" s="5" t="s">
         <v>90</v>
@@ -10961,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AL7" s="2">
         <v>0</v>
@@ -10973,7 +11159,7 @@
         <v>10</v>
       </c>
       <c r="AO7" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AP7" s="5" t="s">
         <v>40</v>
@@ -11097,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL8" s="2">
         <v>0</v>
@@ -11109,7 +11295,7 @@
         <v>10</v>
       </c>
       <c r="AO8" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AP8" s="5" t="s">
         <v>43</v>
@@ -11233,7 +11419,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL9" s="2">
         <v>0</v>
@@ -11245,7 +11431,7 @@
         <v>10</v>
       </c>
       <c r="AO9" s="19" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AP9" s="5" t="s">
         <v>46</v>
@@ -11369,7 +11555,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="AL10" s="2">
         <v>0</v>
@@ -11381,7 +11567,7 @@
         <v>10</v>
       </c>
       <c r="AO10" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AP10" s="5" t="s">
         <v>49</v>
@@ -11517,13 +11703,13 @@
         <v>10</v>
       </c>
       <c r="AO11" s="14" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AP11" s="14" t="s">
         <v>75</v>
       </c>
       <c r="AQ11" s="15" t="s">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="AR11" s="13">
         <v>0</v>
@@ -11653,7 +11839,7 @@
         <v>10</v>
       </c>
       <c r="AO12" s="20" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AP12" s="14" t="s">
         <v>76</v>
@@ -11777,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AL13" s="3">
         <v>0</v>
@@ -11789,7 +11975,7 @@
         <v>10</v>
       </c>
       <c r="AO13" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AP13" s="5" t="s">
         <v>115</v>
@@ -11913,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="3">
         <v>0</v>
@@ -11925,7 +12111,7 @@
         <v>10</v>
       </c>
       <c r="AO14" s="19" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="AP14" s="5" t="s">
         <v>126</v>
@@ -12049,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="3">
         <v>0</v>
@@ -12061,7 +12247,7 @@
         <v>10</v>
       </c>
       <c r="AO15" s="19" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AP15" s="5" t="s">
         <v>122</v>
@@ -12197,7 +12383,7 @@
         <v>10</v>
       </c>
       <c r="AO16" s="19" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="AP16" s="5" t="s">
         <v>109</v>
@@ -12321,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL17" s="3">
         <v>0</v>
@@ -12333,7 +12519,7 @@
         <v>10</v>
       </c>
       <c r="AO17" s="19" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="AP17" s="5" t="s">
         <v>118</v>
@@ -12358,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E18" s="2">
         <v>6</v>
@@ -12457,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL18" s="3">
         <v>0</v>
@@ -12593,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL19" s="3">
         <v>0</v>
@@ -12605,7 +12791,7 @@
         <v>10</v>
       </c>
       <c r="AO19" s="19" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AP19" s="5" t="s">
         <v>113</v>
@@ -12729,7 +12915,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL20" s="3">
         <v>0</v>
@@ -12741,7 +12927,7 @@
         <v>10</v>
       </c>
       <c r="AO20" s="19" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="AP20" s="5" t="s">
         <v>149</v>
@@ -12877,7 +13063,7 @@
         <v>10</v>
       </c>
       <c r="AO21" s="19" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="AP21" s="5" t="s">
         <v>141</v>
@@ -13001,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL22" s="3">
         <v>0</v>
@@ -13013,7 +13199,7 @@
         <v>10</v>
       </c>
       <c r="AO22" s="19" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AP22" s="5" t="s">
         <v>153</v>
@@ -13137,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL23" s="2">
         <v>0</v>
@@ -13149,7 +13335,7 @@
         <v>10</v>
       </c>
       <c r="AO23" s="19" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="AP23" s="5" t="s">
         <v>72</v>
@@ -13273,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL24" s="2">
         <v>0</v>
@@ -13285,7 +13471,7 @@
         <v>10</v>
       </c>
       <c r="AO24" s="19" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="AP24" s="5" t="s">
         <v>130</v>
@@ -13409,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL25" s="2">
         <v>0</v>
@@ -13421,7 +13607,7 @@
         <v>10</v>
       </c>
       <c r="AO25" s="19" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AP25" s="5" t="s">
         <v>59</v>
@@ -13545,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL26" s="2">
         <v>0</v>
@@ -13557,7 +13743,7 @@
         <v>10</v>
       </c>
       <c r="AO26" s="19" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="AP26" s="5" t="s">
         <v>82</v>
@@ -13681,7 +13867,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL27" s="2">
         <v>0</v>
@@ -13693,7 +13879,7 @@
         <v>10</v>
       </c>
       <c r="AO27" s="19" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AP27" s="5" t="s">
         <v>97</v>
@@ -13817,7 +14003,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL28" s="2">
         <v>0</v>
@@ -13953,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL29" s="2">
         <v>0</v>
@@ -13965,7 +14151,7 @@
         <v>10</v>
       </c>
       <c r="AO29" s="19" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="AP29" s="5" t="s">
         <v>156</v>
@@ -14089,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL30" s="2">
         <v>0</v>
@@ -14101,7 +14287,7 @@
         <v>10</v>
       </c>
       <c r="AO30" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AP30" s="5" t="s">
         <v>52</v>
@@ -14225,7 +14411,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL31" s="2">
         <v>0</v>
@@ -14237,7 +14423,7 @@
         <v>10</v>
       </c>
       <c r="AO31" s="19" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AP31" s="5" t="s">
         <v>145</v>
@@ -14373,7 +14559,7 @@
         <v>10</v>
       </c>
       <c r="AO32" s="19" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AP32" s="5" t="s">
         <v>138</v>
@@ -14497,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL33" s="2">
         <v>0</v>
@@ -14509,7 +14695,7 @@
         <v>10</v>
       </c>
       <c r="AO33" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AP33" s="5" t="s">
         <v>54</v>
@@ -14633,7 +14819,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL34" s="2">
         <v>0</v>
@@ -14769,7 +14955,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL35" s="2">
         <v>0</v>
@@ -14781,7 +14967,7 @@
         <v>10</v>
       </c>
       <c r="AO35" s="19" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AP35" s="5" t="s">
         <v>182</v>
@@ -14905,7 +15091,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL36" s="2">
         <v>0</v>
@@ -14917,7 +15103,7 @@
         <v>10</v>
       </c>
       <c r="AO36" s="19" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AP36" s="5" t="s">
         <v>183</v>
@@ -15041,7 +15227,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL37" s="2">
         <v>0</v>
@@ -15053,7 +15239,7 @@
         <v>10</v>
       </c>
       <c r="AO37" s="19" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="AP37" s="5" t="s">
         <v>184</v>
@@ -15177,7 +15363,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL38" s="2">
         <v>0</v>
@@ -15189,7 +15375,7 @@
         <v>10</v>
       </c>
       <c r="AO38" s="19" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="AP38" s="5" t="s">
         <v>185</v>
@@ -15313,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL39" s="2">
         <v>0</v>
@@ -15325,7 +15511,7 @@
         <v>10</v>
       </c>
       <c r="AO39" s="19" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="AP39" s="5" t="s">
         <v>186</v>
@@ -15449,7 +15635,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL40" s="2">
         <v>0</v>
@@ -15461,7 +15647,7 @@
         <v>10</v>
       </c>
       <c r="AO40" s="19" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="AP40" s="5" t="s">
         <v>187</v>
@@ -15585,7 +15771,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL41" s="2">
         <v>0</v>
@@ -15597,7 +15783,7 @@
         <v>10</v>
       </c>
       <c r="AO41" s="19" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AP41" s="5" t="s">
         <v>188</v>
@@ -15721,7 +15907,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL42" s="2">
         <v>0</v>
@@ -15733,7 +15919,7 @@
         <v>10</v>
       </c>
       <c r="AO42" s="19" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AP42" s="5" t="s">
         <v>189</v>
@@ -15857,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL43" s="2">
         <v>0</v>
@@ -15869,7 +16055,7 @@
         <v>10</v>
       </c>
       <c r="AO43" s="19" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="AP43" s="5" t="s">
         <v>190</v>
@@ -15993,7 +16179,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL44" s="2">
         <v>0</v>
@@ -16005,7 +16191,7 @@
         <v>10</v>
       </c>
       <c r="AO44" s="19" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="AP44" s="5" t="s">
         <v>191</v>
@@ -16129,7 +16315,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL45" s="2">
         <v>0</v>
@@ -16141,7 +16327,7 @@
         <v>10</v>
       </c>
       <c r="AO45" s="19" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="AP45" s="5" t="s">
         <v>192</v>
@@ -16265,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL46" s="2">
         <v>0</v>
@@ -16277,7 +16463,7 @@
         <v>10</v>
       </c>
       <c r="AO46" s="19" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="AP46" s="5" t="s">
         <v>193</v>
@@ -16401,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL47" s="2">
         <v>0</v>
@@ -16413,7 +16599,7 @@
         <v>10</v>
       </c>
       <c r="AO47" s="19" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="AP47" s="5" t="s">
         <v>194</v>
@@ -16537,7 +16723,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL48" s="2">
         <v>0</v>
@@ -16549,7 +16735,7 @@
         <v>10</v>
       </c>
       <c r="AO48" s="19" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="AP48" s="5" t="s">
         <v>195</v>
@@ -16673,7 +16859,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL49" s="2">
         <v>0</v>
@@ -16685,7 +16871,7 @@
         <v>10</v>
       </c>
       <c r="AO49" s="19" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="AP49" s="5" t="s">
         <v>196</v>
@@ -16809,7 +16995,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AL50" s="2">
         <v>0</v>
@@ -16821,7 +17007,7 @@
         <v>10</v>
       </c>
       <c r="AO50" s="19" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="AP50" s="5" t="s">
         <v>197</v>
@@ -16945,7 +17131,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL51" s="2">
         <v>0</v>
@@ -16957,7 +17143,7 @@
         <v>10</v>
       </c>
       <c r="AO51" s="19" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AP51" s="5" t="s">
         <v>198</v>
@@ -17093,7 +17279,7 @@
         <v>10</v>
       </c>
       <c r="AO52" s="19" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="AP52" s="5" t="s">
         <v>199</v>
@@ -17229,7 +17415,7 @@
         <v>10</v>
       </c>
       <c r="AO53" s="19" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="AP53" s="5" t="s">
         <v>200</v>
@@ -17353,7 +17539,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL54" s="2">
         <v>0</v>
@@ -17365,7 +17551,7 @@
         <v>10</v>
       </c>
       <c r="AO54" s="19" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="AP54" s="5" t="s">
         <v>77</v>
@@ -17392,9 +17578,9 @@
   <dimension ref="A1:AR54"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:Z1048576"/>
+      <selection pane="bottomLeft" activeCell="AK1" sqref="AK1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17666,7 +17852,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL2" s="7">
         <v>0</v>
@@ -17802,7 +17988,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL3" s="2">
         <v>0</v>
@@ -17938,7 +18124,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL4" s="2">
         <v>0</v>
@@ -18074,7 +18260,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL5" s="2">
         <v>0</v>
@@ -18210,7 +18396,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL6" s="2">
         <v>0</v>
@@ -18346,7 +18532,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL7" s="2">
         <v>0</v>
@@ -18482,7 +18668,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL8" s="2">
         <v>0</v>
@@ -18618,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL9" s="2">
         <v>0</v>
@@ -18754,7 +18940,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="2">
         <v>0</v>
@@ -19162,7 +19348,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL13" s="3">
         <v>0</v>
@@ -19298,7 +19484,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="3">
         <v>0</v>
@@ -19434,7 +19620,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="3">
         <v>0</v>
@@ -19570,7 +19756,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL16" s="3">
         <v>0</v>
@@ -19706,7 +19892,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL17" s="3">
         <v>0</v>
@@ -19842,7 +20028,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL18" s="3">
         <v>0</v>
@@ -19978,7 +20164,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL19" s="3">
         <v>0</v>
@@ -20114,7 +20300,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL20" s="3">
         <v>0</v>
@@ -20250,7 +20436,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="3">
         <v>0</v>
@@ -20386,7 +20572,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL22" s="3">
         <v>0</v>
@@ -20522,7 +20708,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL23" s="2">
         <v>0</v>
@@ -20658,7 +20844,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL24" s="2">
         <v>0</v>
@@ -20794,7 +20980,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL25" s="2">
         <v>0</v>
@@ -20930,7 +21116,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL26" s="2">
         <v>0</v>
@@ -21066,7 +21252,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL27" s="2">
         <v>0</v>
@@ -21202,7 +21388,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL28" s="2">
         <v>0</v>
@@ -21338,7 +21524,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL29" s="2">
         <v>0</v>
@@ -21474,7 +21660,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL30" s="2">
         <v>0</v>
@@ -21610,7 +21796,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL31" s="2">
         <v>0</v>
@@ -21746,7 +21932,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL32" s="2">
         <v>0</v>
@@ -21882,7 +22068,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL33" s="2">
         <v>0</v>
@@ -22018,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL34" s="2">
         <v>0</v>
@@ -22154,7 +22340,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL35" s="2">
         <v>0</v>
@@ -22290,7 +22476,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL36" s="2">
         <v>0</v>
@@ -22426,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL37" s="2">
         <v>0</v>
@@ -22562,7 +22748,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL38" s="2">
         <v>0</v>
@@ -22698,7 +22884,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL39" s="2">
         <v>0</v>
@@ -22834,7 +23020,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL40" s="2">
         <v>0</v>
@@ -22970,7 +23156,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL41" s="2">
         <v>0</v>
@@ -23106,7 +23292,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL42" s="2">
         <v>0</v>
@@ -23242,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL43" s="2">
         <v>0</v>
@@ -23378,7 +23564,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL44" s="2">
         <v>0</v>
@@ -23514,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL45" s="2">
         <v>0</v>
@@ -23650,7 +23836,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL46" s="2">
         <v>0</v>
@@ -23786,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL47" s="2">
         <v>0</v>
@@ -23922,7 +24108,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL48" s="2">
         <v>0</v>
@@ -24058,7 +24244,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL49" s="2">
         <v>0</v>
@@ -24194,7 +24380,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL50" s="2">
         <v>0</v>
@@ -24330,7 +24516,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL51" s="2">
         <v>0</v>
@@ -24738,7 +24924,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL54" s="2">
         <v>0</v>
@@ -24777,9 +24963,9 @@
   <dimension ref="A1:AR54"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:Z1048576"/>
+      <selection pane="bottomLeft" activeCell="AK1" sqref="AK1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25051,7 +25237,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL2" s="7">
         <v>0</v>
@@ -25187,7 +25373,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL3" s="2">
         <v>0</v>
@@ -25323,7 +25509,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL4" s="2">
         <v>0</v>
@@ -25459,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL5" s="2">
         <v>0</v>
@@ -25595,7 +25781,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL6" s="2">
         <v>0</v>
@@ -25731,7 +25917,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL7" s="2">
         <v>0</v>
@@ -25867,7 +26053,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL8" s="2">
         <v>0</v>
@@ -26003,7 +26189,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL9" s="2">
         <v>0</v>
@@ -26139,7 +26325,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="2">
         <v>0</v>
@@ -26547,7 +26733,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL13" s="3">
         <v>0</v>
@@ -26683,7 +26869,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="3">
         <v>0</v>
@@ -26819,7 +27005,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="3">
         <v>0</v>
@@ -26955,7 +27141,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL16" s="3">
         <v>0</v>
@@ -27091,7 +27277,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL17" s="3">
         <v>0</v>
@@ -27227,7 +27413,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL18" s="3">
         <v>0</v>
@@ -27363,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL19" s="3">
         <v>0</v>
@@ -27499,7 +27685,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL20" s="3">
         <v>0</v>
@@ -27635,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="3">
         <v>0</v>
@@ -27771,7 +27957,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL22" s="3">
         <v>0</v>
@@ -27907,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL23" s="2">
         <v>0</v>
@@ -28043,7 +28229,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL24" s="2">
         <v>0</v>
@@ -28179,7 +28365,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL25" s="2">
         <v>0</v>
@@ -28315,7 +28501,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL26" s="2">
         <v>0</v>
@@ -28451,7 +28637,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL27" s="2">
         <v>0</v>
@@ -28587,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL28" s="2">
         <v>0</v>
@@ -28723,7 +28909,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL29" s="2">
         <v>0</v>
@@ -28859,7 +29045,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL30" s="2">
         <v>0</v>
@@ -28995,7 +29181,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL31" s="2">
         <v>0</v>
@@ -29131,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL32" s="2">
         <v>0</v>
@@ -29267,7 +29453,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL33" s="2">
         <v>0</v>
@@ -29403,7 +29589,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL34" s="2">
         <v>0</v>
@@ -29539,7 +29725,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL35" s="2">
         <v>0</v>
@@ -29675,7 +29861,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL36" s="2">
         <v>0</v>
@@ -29811,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL37" s="2">
         <v>0</v>
@@ -29947,7 +30133,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL38" s="2">
         <v>0</v>
@@ -30083,7 +30269,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL39" s="2">
         <v>0</v>
@@ -30219,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL40" s="2">
         <v>0</v>
@@ -30355,7 +30541,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL41" s="2">
         <v>0</v>
@@ -30491,7 +30677,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL42" s="2">
         <v>0</v>
@@ -30627,7 +30813,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL43" s="2">
         <v>0</v>
@@ -30763,7 +30949,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL44" s="2">
         <v>0</v>
@@ -30899,7 +31085,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL45" s="2">
         <v>0</v>
@@ -31035,7 +31221,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL46" s="2">
         <v>0</v>
@@ -31171,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL47" s="2">
         <v>0</v>
@@ -31307,7 +31493,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL48" s="2">
         <v>0</v>
@@ -31443,7 +31629,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL49" s="2">
         <v>0</v>
@@ -31579,7 +31765,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL50" s="2">
         <v>0</v>
@@ -31715,7 +31901,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL51" s="2">
         <v>0</v>
@@ -32123,7 +32309,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL54" s="2">
         <v>0</v>
@@ -32162,9 +32348,9 @@
   <dimension ref="A1:AR54"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AA7" sqref="AA7"/>
+      <selection pane="bottomLeft" activeCell="AK1" sqref="AK1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32436,7 +32622,7 @@
         <v>0</v>
       </c>
       <c r="AK2" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL2" s="7">
         <v>0</v>
@@ -32572,7 +32758,7 @@
         <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL3" s="2">
         <v>0</v>
@@ -32708,7 +32894,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL4" s="2">
         <v>0</v>
@@ -32844,7 +33030,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL5" s="2">
         <v>0</v>
@@ -32980,7 +33166,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL6" s="2">
         <v>0</v>
@@ -33116,7 +33302,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL7" s="2">
         <v>0</v>
@@ -33252,7 +33438,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL8" s="2">
         <v>0</v>
@@ -33388,7 +33574,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL9" s="2">
         <v>0</v>
@@ -33524,7 +33710,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="2">
         <v>0</v>
@@ -33932,7 +34118,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL13" s="3">
         <v>0</v>
@@ -34068,7 +34254,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="3">
         <v>0</v>
@@ -34204,7 +34390,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL15" s="3">
         <v>0</v>
@@ -34340,7 +34526,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL16" s="3">
         <v>0</v>
@@ -34476,7 +34662,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL17" s="3">
         <v>0</v>
@@ -34612,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL18" s="3">
         <v>0</v>
@@ -34748,7 +34934,7 @@
         <v>0</v>
       </c>
       <c r="AK19" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL19" s="3">
         <v>0</v>
@@ -34884,7 +35070,7 @@
         <v>0</v>
       </c>
       <c r="AK20" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL20" s="3">
         <v>0</v>
@@ -35020,7 +35206,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="3">
         <v>0</v>
@@ -35156,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL22" s="3">
         <v>0</v>
@@ -35292,7 +35478,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL23" s="2">
         <v>0</v>
@@ -35428,7 +35614,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL24" s="2">
         <v>0</v>
@@ -35564,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL25" s="2">
         <v>0</v>
@@ -35700,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="AK26" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL26" s="2">
         <v>0</v>
@@ -35836,7 +36022,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL27" s="2">
         <v>0</v>
@@ -35972,7 +36158,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL28" s="2">
         <v>0</v>
@@ -36108,7 +36294,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL29" s="2">
         <v>0</v>
@@ -36244,7 +36430,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL30" s="2">
         <v>0</v>
@@ -36380,7 +36566,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL31" s="2">
         <v>0</v>
@@ -36516,7 +36702,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL32" s="2">
         <v>0</v>
@@ -36652,7 +36838,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL33" s="2">
         <v>0</v>
@@ -36788,7 +36974,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL34" s="2">
         <v>0</v>
@@ -36924,7 +37110,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL35" s="2">
         <v>0</v>
@@ -37060,7 +37246,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL36" s="2">
         <v>0</v>
@@ -37196,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="AK37" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL37" s="2">
         <v>0</v>
@@ -37332,7 +37518,7 @@
         <v>0</v>
       </c>
       <c r="AK38" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL38" s="2">
         <v>0</v>
@@ -37468,7 +37654,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL39" s="2">
         <v>0</v>
@@ -37604,7 +37790,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL40" s="2">
         <v>0</v>
@@ -37740,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL41" s="2">
         <v>0</v>
@@ -37876,7 +38062,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL42" s="2">
         <v>0</v>
@@ -38012,7 +38198,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL43" s="2">
         <v>0</v>
@@ -38148,7 +38334,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL44" s="2">
         <v>0</v>
@@ -38284,7 +38470,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL45" s="2">
         <v>0</v>
@@ -38420,7 +38606,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL46" s="2">
         <v>0</v>
@@ -38556,7 +38742,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL47" s="2">
         <v>0</v>
@@ -38692,7 +38878,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL48" s="2">
         <v>0</v>
@@ -38828,7 +39014,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL49" s="2">
         <v>0</v>
@@ -38964,7 +39150,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL50" s="2">
         <v>0</v>
@@ -39100,7 +39286,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL51" s="2">
         <v>0</v>
@@ -39508,7 +39694,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL54" s="2">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438BD0D4-0B1A-40D3-8AB2-D43C3FB74C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F994D26-9AE1-4EA2-8415-162E926E775E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1050" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="660" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -10192,10 +10192,10 @@
   </sheetPr>
   <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AQ12" sqref="AQ12"/>
+      <selection pane="bottomLeft" activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="12">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="P12" s="12">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F994D26-9AE1-4EA2-8415-162E926E775E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CCA7E5-570B-4EA6-B2A5-96DE7CB580EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="660" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1005" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -10195,7 +10195,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AF12" sqref="AF12"/>
+      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11770,7 +11770,7 @@
         <v>20</v>
       </c>
       <c r="R12" s="12">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="S12" s="12">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CCA7E5-570B-4EA6-B2A5-96DE7CB580EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73D45F0-6175-47B3-9080-28741D680F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="1005" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="495" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -2337,8 +2337,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>あるご婦人の方のお茶会に、&lt;color=#FF78B4&gt;クッキー&lt;/color&gt;がほしいそうよ。
-さくさく感にうるさいお客様だけど.. 報酬は高いみたい。</t>
+    <t>あるご婦人の方のお茶会に、&lt;color=#FF78B4&gt;クッキー&lt;/color&gt;がほしいそうよ。さくさく感にうるさいお客様だけど.. 報酬は高いみたい。</t>
     <rPh sb="3" eb="5">
       <t>フジン</t>
     </rPh>
@@ -2348,16 +2347,16 @@
     <rPh sb="9" eb="11">
       <t>チャカイ</t>
     </rPh>
-    <rPh sb="53" eb="54">
+    <rPh sb="52" eb="53">
       <t>カン</t>
     </rPh>
-    <rPh sb="60" eb="62">
+    <rPh sb="59" eb="61">
       <t>キャクサマ</t>
     </rPh>
-    <rPh sb="68" eb="70">
+    <rPh sb="67" eb="69">
       <t>ホウシュウ</t>
     </rPh>
-    <rPh sb="71" eb="72">
+    <rPh sb="70" eb="71">
       <t>タカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -10195,7 +10194,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Z12" sqref="Z12"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11891,7 +11890,7 @@
         <v>5</v>
       </c>
       <c r="M13" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -12435,7 +12434,7 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73D45F0-6175-47B3-9080-28741D680F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A839B24-CBE5-4AC8-B29F-144000F612B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="495" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="570" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="277">
   <si>
     <t>desc</t>
   </si>
@@ -2358,6 +2358,44 @@
     </rPh>
     <rPh sb="70" eb="71">
       <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lavender_flower</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lavender</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラベンダーのお花の入手</t>
+    <rPh sb="7" eb="8">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;color=#FF78B4&gt;ラベンダーのお花&lt;/color&gt;を採ってきてくれないかしら？
+お店の飾りに使うのよ～。</t>
+    <rPh sb="22" eb="23">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カザ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10189,12 +10227,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR54"/>
+  <dimension ref="A1:AR55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+      <selection pane="bottomLeft" activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10356,7 +10394,7 @@
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A54" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A55" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -10632,7 +10670,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B54" si="1">(ROW()-2)+10000</f>
+        <f t="shared" ref="B4:B55" si="1">(ROW()-2)+10000</f>
         <v>10002</v>
       </c>
       <c r="C4" s="2">
@@ -11578,139 +11616,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:44" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+    <row r="11" spans="1:44" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="2">
         <f t="shared" si="1"/>
         <v>10009</v>
       </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12">
-        <v>1</v>
-      </c>
-      <c r="L11" s="12">
-        <v>1</v>
-      </c>
-      <c r="M11" s="12">
-        <v>600</v>
-      </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
-      <c r="O11" s="12">
-        <v>32</v>
-      </c>
-      <c r="P11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>0</v>
-      </c>
-      <c r="R11" s="12">
-        <v>90</v>
-      </c>
-      <c r="S11" s="12">
-        <v>0</v>
-      </c>
-      <c r="T11" s="12">
-        <v>0</v>
-      </c>
-      <c r="U11" s="12">
-        <v>0</v>
-      </c>
-      <c r="V11" s="12">
-        <v>0</v>
-      </c>
-      <c r="W11" s="12">
-        <v>0</v>
-      </c>
-      <c r="X11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="12">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>7</v>
+      </c>
+      <c r="M11" s="2">
+        <v>80</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
         <v>50</v>
       </c>
-      <c r="Z11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE11" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="13">
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2">
         <v>10</v>
       </c>
-      <c r="AL11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="13">
-        <v>10</v>
-      </c>
-      <c r="AO11" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="AP11" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AQ11" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="AR11" s="13">
+      <c r="AO11" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP11" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ11" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR11" s="2">
         <v>0</v>
       </c>
     </row>
@@ -11736,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>7</v>
@@ -11754,22 +11792,22 @@
         <v>1</v>
       </c>
       <c r="M12" s="12">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N12" s="12">
         <v>0</v>
       </c>
       <c r="O12" s="12">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="P12" s="12">
         <v>0</v>
       </c>
       <c r="Q12" s="12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R12" s="12">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="S12" s="12">
         <v>0</v>
@@ -11796,13 +11834,13 @@
         <v>0</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="AB12" s="13" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="AD12" s="13" t="s">
         <v>7</v>
@@ -11810,179 +11848,179 @@
       <c r="AE12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AF12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="12">
+      <c r="AF12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13">
         <v>10</v>
       </c>
-      <c r="AL12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="12">
+      <c r="AL12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="13">
         <v>10</v>
       </c>
-      <c r="AO12" s="20" t="s">
-        <v>254</v>
+      <c r="AO12" s="14" t="s">
+        <v>253</v>
       </c>
       <c r="AP12" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AQ12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="AR12" s="12">
+        <v>272</v>
+      </c>
+      <c r="AR12" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:44" s="16" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="12">
         <f t="shared" si="1"/>
         <v>10011</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>5</v>
-      </c>
-      <c r="M13" s="2">
-        <v>90</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1</v>
+      </c>
+      <c r="M13" s="12">
+        <v>800</v>
+      </c>
+      <c r="N13" s="12">
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <v>48</v>
+      </c>
+      <c r="P13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
         <v>20</v>
       </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>30</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2">
+      <c r="R13" s="12">
+        <v>110</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
         <v>50</v>
       </c>
-      <c r="Z13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="2">
+      <c r="Z13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="12">
         <v>10</v>
       </c>
-      <c r="AO13" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="AP13" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR13" s="3">
+      <c r="AL13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="12">
+        <v>10</v>
+      </c>
+      <c r="AO13" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ13" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR13" s="12">
         <v>0</v>
       </c>
     </row>
@@ -11996,7 +12034,7 @@
         <v>10012</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -12008,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>7</v>
@@ -12023,16 +12061,16 @@
         <v>1</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M14" s="2">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P14" s="2">
         <v>0</v>
@@ -12041,7 +12079,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
@@ -12050,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2">
         <v>0</v>
@@ -12062,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z14" s="2">
         <v>0</v>
@@ -12098,7 +12136,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL14" s="3">
         <v>0</v>
@@ -12110,13 +12148,13 @@
         <v>10</v>
       </c>
       <c r="AO14" s="19" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="AP14" s="5" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="AQ14" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AR14" s="3">
         <v>0</v>
@@ -12138,16 +12176,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>7</v>
@@ -12162,13 +12200,13 @@
         <v>1</v>
       </c>
       <c r="M15" s="2">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="N15" s="2">
         <v>0</v>
       </c>
       <c r="O15" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
         <v>0</v>
@@ -12180,13 +12218,13 @@
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T15" s="2">
         <v>0</v>
       </c>
       <c r="U15" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V15" s="2">
         <v>0</v>
@@ -12198,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Z15" s="2">
         <v>0</v>
@@ -12246,13 +12284,13 @@
         <v>10</v>
       </c>
       <c r="AO15" s="19" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="AP15" s="5" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AQ15" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AR15" s="3">
         <v>0</v>
@@ -12280,13 +12318,13 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -12298,25 +12336,25 @@
         <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
       </c>
       <c r="O16" s="2">
+        <v>85</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
         <v>60</v>
-      </c>
-      <c r="P16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
-        <v>50</v>
       </c>
       <c r="T16" s="2">
         <v>0</v>
@@ -12370,7 +12408,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL16" s="3">
         <v>0</v>
@@ -12382,13 +12420,13 @@
         <v>10</v>
       </c>
       <c r="AO16" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AP16" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AQ16" s="4" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="AR16" s="3">
         <v>0</v>
@@ -12404,25 +12442,25 @@
         <v>10015</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
@@ -12434,13 +12472,13 @@
         <v>1</v>
       </c>
       <c r="M17" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P17" s="2">
         <v>0</v>
@@ -12449,10 +12487,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T17" s="2">
         <v>0</v>
@@ -12506,7 +12544,7 @@
         <v>0</v>
       </c>
       <c r="AK17" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL17" s="3">
         <v>0</v>
@@ -12518,13 +12556,13 @@
         <v>10</v>
       </c>
       <c r="AO17" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AP17" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AQ17" s="4" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="AR17" s="3">
         <v>0</v>
@@ -12540,25 +12578,25 @@
         <v>10016</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -12570,13 +12608,13 @@
         <v>1</v>
       </c>
       <c r="M18" s="2">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="N18" s="2">
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
@@ -12585,13 +12623,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
       </c>
       <c r="T18" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U18" s="2">
         <v>0</v>
@@ -12654,13 +12692,13 @@
         <v>10</v>
       </c>
       <c r="AO18" s="19" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="AP18" s="5" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AQ18" s="4" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="AR18" s="3">
         <v>0</v>
@@ -12679,7 +12717,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E19" s="2">
         <v>6</v>
@@ -12688,13 +12726,13 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J19" s="2">
         <v>0</v>
@@ -12706,13 +12744,13 @@
         <v>1</v>
       </c>
       <c r="M19" s="2">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="P19" s="2">
         <v>0</v>
@@ -12724,10 +12762,10 @@
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T19" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U19" s="2">
         <v>0</v>
@@ -12790,13 +12828,13 @@
         <v>10</v>
       </c>
       <c r="AO19" s="19" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="AP19" s="5" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="AQ19" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="AR19" s="3">
         <v>0</v>
@@ -12818,19 +12856,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -12842,31 +12880,31 @@
         <v>1</v>
       </c>
       <c r="M20" s="2">
-        <v>1950</v>
+        <v>1500</v>
       </c>
       <c r="N20" s="2">
         <v>0</v>
       </c>
       <c r="O20" s="2">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="P20" s="2">
         <v>0</v>
       </c>
       <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
         <v>30</v>
       </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
       <c r="T20" s="2">
         <v>0</v>
       </c>
       <c r="U20" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V20" s="2">
         <v>0</v>
@@ -12926,13 +12964,13 @@
         <v>10</v>
       </c>
       <c r="AO20" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AP20" s="5" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="AQ20" s="4" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="AR20" s="3">
         <v>0</v>
@@ -12948,7 +12986,7 @@
         <v>10019</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -12960,13 +12998,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -12978,22 +13016,22 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>1200</v>
+        <v>1950</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="P21" s="2">
         <v>0</v>
       </c>
       <c r="Q21" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R21" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -13002,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V21" s="2">
         <v>0</v>
@@ -13050,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="AK21" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL21" s="3">
         <v>0</v>
@@ -13062,13 +13100,13 @@
         <v>10</v>
       </c>
       <c r="AO21" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AP21" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AQ21" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AR21" s="3">
         <v>0</v>
@@ -13084,109 +13122,109 @@
         <v>10020</v>
       </c>
       <c r="C22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1200</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>20</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2">
+        <v>30</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>50</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="2">
         <v>10</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>1</v>
-      </c>
-      <c r="M22" s="2">
-        <v>5000</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <v>100</v>
-      </c>
-      <c r="P22" s="2">
-        <v>140</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>50</v>
-      </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2">
-        <v>0</v>
-      </c>
-      <c r="X22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="2">
-        <v>12</v>
       </c>
       <c r="AL22" s="3">
         <v>0</v>
@@ -13198,13 +13236,13 @@
         <v>10</v>
       </c>
       <c r="AO22" s="19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AP22" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="AQ22" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AR22" s="3">
         <v>0</v>
@@ -13223,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
@@ -13232,13 +13270,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -13250,16 +13288,16 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="P23" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="2">
         <v>0</v>
@@ -13268,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T23" s="2">
         <v>0</v>
@@ -13283,10 +13321,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Z23" s="2">
         <v>0</v>
@@ -13306,43 +13344,43 @@
       <c r="AE23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AF23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="2">
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="3">
         <v>0</v>
       </c>
       <c r="AK23" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="2">
+        <v>12</v>
+      </c>
+      <c r="AL23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="3">
         <v>0</v>
       </c>
       <c r="AN23" s="2">
         <v>10</v>
       </c>
       <c r="AO23" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AP23" s="5" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="AQ23" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR23" s="2">
+        <v>157</v>
+      </c>
+      <c r="AR23" s="3">
         <v>0</v>
       </c>
     </row>
@@ -13368,58 +13406,58 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>400</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
         <v>20</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
         <v>35</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2">
-        <v>1</v>
-      </c>
-      <c r="M24" s="2">
-        <v>300</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>32</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
-        <v>70</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0</v>
       </c>
       <c r="Y24" s="2">
         <v>50</v>
@@ -13458,7 +13496,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL24" s="2">
         <v>0</v>
@@ -13470,13 +13508,13 @@
         <v>10</v>
       </c>
       <c r="AO24" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AP24" s="5" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AQ24" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AR24" s="2">
         <v>0</v>
@@ -13504,13 +13542,13 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -13522,16 +13560,16 @@
         <v>1</v>
       </c>
       <c r="M25" s="2">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N25" s="2">
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P25" s="2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <v>0</v>
@@ -13558,13 +13596,13 @@
         <v>0</v>
       </c>
       <c r="Y25" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z25" s="2">
         <v>0</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="AB25" s="3" t="s">
         <v>7</v>
@@ -13579,7 +13617,7 @@
         <v>7</v>
       </c>
       <c r="AF25" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="2">
         <v>0</v>
@@ -13606,13 +13644,13 @@
         <v>10</v>
       </c>
       <c r="AO25" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AP25" s="5" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="AQ25" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AR25" s="2">
         <v>0</v>
@@ -13631,7 +13669,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
@@ -13640,10 +13678,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>7</v>
@@ -13658,7 +13696,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
@@ -13667,13 +13705,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S26" s="2">
         <v>0</v>
@@ -13694,28 +13732,28 @@
         <v>0</v>
       </c>
       <c r="Y26" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF26" s="2">
         <v>30</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF26" s="2">
-        <v>0</v>
       </c>
       <c r="AG26" s="2">
         <v>0</v>
@@ -13742,13 +13780,13 @@
         <v>10</v>
       </c>
       <c r="AO26" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AP26" s="5" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="AQ26" s="4" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AR26" s="2">
         <v>0</v>
@@ -13767,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
@@ -13776,13 +13814,13 @@
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -13794,25 +13832,25 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
       </c>
       <c r="Q27" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
       </c>
       <c r="S27" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="T27" s="2">
         <v>0</v>
@@ -13830,25 +13868,25 @@
         <v>0</v>
       </c>
       <c r="Y27" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Z27" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="AD27" s="3" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="AF27" s="2">
         <v>0</v>
@@ -13866,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL27" s="2">
         <v>0</v>
@@ -13878,13 +13916,13 @@
         <v>10</v>
       </c>
       <c r="AO27" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP27" s="5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AQ27" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="AR27" s="2">
         <v>0</v>
@@ -13912,13 +13950,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -13930,31 +13968,31 @@
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="P28" s="2">
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
       </c>
       <c r="S28" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
       </c>
       <c r="U28" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V28" s="2">
         <v>0</v>
@@ -13966,25 +14004,25 @@
         <v>0</v>
       </c>
       <c r="Y28" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Z28" s="2">
         <v>0</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="AD28" s="3" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="AF28" s="2">
         <v>0</v>
@@ -14002,7 +14040,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AL28" s="2">
         <v>0</v>
@@ -14014,13 +14052,13 @@
         <v>10</v>
       </c>
       <c r="AO28" s="19" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AP28" s="5" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AQ28" s="4" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="AR28" s="2">
         <v>0</v>
@@ -14048,13 +14086,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -14066,22 +14104,22 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="P29" s="2">
         <v>0</v>
       </c>
       <c r="Q29" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R29" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2">
         <v>0</v>
@@ -14090,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
@@ -14150,13 +14188,13 @@
         <v>10</v>
       </c>
       <c r="AO29" s="19" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AP29" s="5" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="AQ29" s="4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AR29" s="2">
         <v>0</v>
@@ -14172,10 +14210,10 @@
         <v>10028</v>
       </c>
       <c r="C30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>9999</v>
+        <v>30</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
@@ -14184,10 +14222,10 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>7</v>
@@ -14199,16 +14237,16 @@
         <v>1</v>
       </c>
       <c r="L30" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>15</v>
+        <v>550</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P30" s="2">
         <v>0</v>
@@ -14217,7 +14255,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
@@ -14274,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="AK30" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL30" s="2">
         <v>0</v>
@@ -14286,13 +14324,13 @@
         <v>10</v>
       </c>
       <c r="AO30" s="19" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="AP30" s="5" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AQ30" s="4" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="AR30" s="2">
         <v>0</v>
@@ -14308,10 +14346,10 @@
         <v>10029</v>
       </c>
       <c r="C31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2">
-        <v>40</v>
+        <v>9999</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
@@ -14320,13 +14358,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -14335,16 +14373,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M31" s="2">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2">
         <v>0</v>
@@ -14356,7 +14394,7 @@
         <v>0</v>
       </c>
       <c r="S31" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="T31" s="2">
         <v>0</v>
@@ -14374,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="Z31" s="2">
         <v>0</v>
@@ -14422,13 +14460,13 @@
         <v>10</v>
       </c>
       <c r="AO31" s="19" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AP31" s="5" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="AQ31" s="4" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="AR31" s="2">
         <v>0</v>
@@ -14444,7 +14482,7 @@
         <v>10030</v>
       </c>
       <c r="C32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
         <v>40</v>
@@ -14456,13 +14494,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -14474,13 +14512,13 @@
         <v>1</v>
       </c>
       <c r="M32" s="2">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="P32" s="2">
         <v>0</v>
@@ -14492,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
@@ -14510,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Z32" s="2">
         <v>0</v>
@@ -14546,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL32" s="2">
         <v>0</v>
@@ -14558,13 +14596,13 @@
         <v>10</v>
       </c>
       <c r="AO32" s="19" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AP32" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AQ32" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AR32" s="2">
         <v>0</v>
@@ -14592,10 +14630,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>7</v>
@@ -14607,10 +14645,10 @@
         <v>1</v>
       </c>
       <c r="L33" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2">
-        <v>330</v>
+        <v>800</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
@@ -14682,7 +14720,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL33" s="2">
         <v>0</v>
@@ -14694,13 +14732,13 @@
         <v>10</v>
       </c>
       <c r="AO33" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AP33" s="5" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="AQ33" s="4" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="AR33" s="2">
         <v>0</v>
@@ -14716,10 +14754,10 @@
         <v>10032</v>
       </c>
       <c r="C34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E34" s="2">
         <v>10</v>
@@ -14728,13 +14766,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -14746,22 +14784,22 @@
         <v>2</v>
       </c>
       <c r="M34" s="2">
-        <v>850</v>
+        <v>330</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P34" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2">
         <v>0</v>
       </c>
       <c r="R34" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2">
         <v>0</v>
@@ -14818,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL34" s="2">
         <v>0</v>
@@ -14830,13 +14868,13 @@
         <v>10</v>
       </c>
       <c r="AO34" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AP34" s="5" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="AQ34" s="4" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="AR34" s="2">
         <v>0</v>
@@ -14864,13 +14902,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -14882,19 +14920,19 @@
         <v>2</v>
       </c>
       <c r="M35" s="2">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="P35" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q35" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R35" s="2">
         <v>60</v>
@@ -14966,13 +15004,13 @@
         <v>10</v>
       </c>
       <c r="AO35" s="19" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="AP35" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ35" s="4" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="AR35" s="2">
         <v>0</v>
@@ -15000,10 +15038,10 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>7</v>
@@ -15018,13 +15056,13 @@
         <v>2</v>
       </c>
       <c r="M36" s="2">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P36" s="2">
         <v>0</v>
@@ -15033,7 +15071,7 @@
         <v>30</v>
       </c>
       <c r="R36" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
@@ -15102,13 +15140,13 @@
         <v>10</v>
       </c>
       <c r="AO36" s="19" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AP36" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AQ36" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AR36" s="2">
         <v>0</v>
@@ -15136,10 +15174,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>7</v>
@@ -15160,13 +15198,13 @@
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="P37" s="2">
         <v>0</v>
       </c>
       <c r="Q37" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R37" s="2">
         <v>50</v>
@@ -15238,13 +15276,13 @@
         <v>10</v>
       </c>
       <c r="AO37" s="19" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AP37" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AQ37" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AR37" s="2">
         <v>0</v>
@@ -15272,10 +15310,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>7</v>
@@ -15290,25 +15328,25 @@
         <v>2</v>
       </c>
       <c r="M38" s="2">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="P38" s="2">
         <v>0</v>
       </c>
       <c r="Q38" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="R38" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S38" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="T38" s="2">
         <v>0</v>
@@ -15326,7 +15364,7 @@
         <v>0</v>
       </c>
       <c r="Y38" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Z38" s="2">
         <v>0</v>
@@ -15374,13 +15412,13 @@
         <v>10</v>
       </c>
       <c r="AO38" s="19" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AP38" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AQ38" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AR38" s="2">
         <v>0</v>
@@ -15408,13 +15446,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -15426,25 +15464,25 @@
         <v>2</v>
       </c>
       <c r="M39" s="2">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="P39" s="2">
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
       </c>
       <c r="S39" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
@@ -15462,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z39" s="2">
         <v>0</v>
@@ -15498,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="AK39" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AL39" s="2">
         <v>0</v>
@@ -15510,13 +15548,13 @@
         <v>10</v>
       </c>
       <c r="AO39" s="19" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AP39" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AQ39" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AR39" s="2">
         <v>0</v>
@@ -15544,13 +15582,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -15562,44 +15600,44 @@
         <v>2</v>
       </c>
       <c r="M40" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
       </c>
       <c r="O40" s="2">
+        <v>77</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2">
         <v>80</v>
       </c>
-      <c r="P40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>0</v>
-      </c>
-      <c r="R40" s="2">
+      <c r="T40" s="2">
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
         <v>80</v>
       </c>
-      <c r="S40" s="2">
-        <v>0</v>
-      </c>
-      <c r="T40" s="2">
-        <v>0</v>
-      </c>
-      <c r="U40" s="2">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2">
-        <v>0</v>
-      </c>
-      <c r="W40" s="2">
-        <v>0</v>
-      </c>
-      <c r="X40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>50</v>
-      </c>
       <c r="Z40" s="2">
         <v>0</v>
       </c>
@@ -15634,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AL40" s="2">
         <v>0</v>
@@ -15646,13 +15684,13 @@
         <v>10</v>
       </c>
       <c r="AO40" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AP40" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AQ40" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR40" s="2">
         <v>0</v>
@@ -15671,7 +15709,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2">
         <v>10</v>
@@ -15680,10 +15718,10 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>7</v>
@@ -15704,7 +15742,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="P41" s="2">
         <v>0</v>
@@ -15713,7 +15751,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S41" s="2">
         <v>0</v>
@@ -15731,11 +15769,11 @@
         <v>0</v>
       </c>
       <c r="X41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2">
         <v>50</v>
       </c>
-      <c r="Y41" s="2">
-        <v>70</v>
-      </c>
       <c r="Z41" s="2">
         <v>0</v>
       </c>
@@ -15770,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AL41" s="2">
         <v>0</v>
@@ -15782,13 +15820,13 @@
         <v>10</v>
       </c>
       <c r="AO41" s="19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AP41" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ41" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR41" s="2">
         <v>0</v>
@@ -15816,10 +15854,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>7</v>
@@ -15834,7 +15872,7 @@
         <v>2</v>
       </c>
       <c r="M42" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
@@ -15867,7 +15905,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y42" s="2">
         <v>70</v>
@@ -15921,10 +15959,10 @@
         <v>265</v>
       </c>
       <c r="AP42" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ42" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AR42" s="2">
         <v>0</v>
@@ -15952,10 +15990,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>7</v>
@@ -15970,22 +16008,22 @@
         <v>2</v>
       </c>
       <c r="M43" s="2">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P43" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="2">
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2">
         <v>0</v>
@@ -16003,10 +16041,10 @@
         <v>0</v>
       </c>
       <c r="X43" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y43" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Z43" s="2">
         <v>0</v>
@@ -16054,13 +16092,13 @@
         <v>10</v>
       </c>
       <c r="AO43" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AP43" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AQ43" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AR43" s="2">
         <v>0</v>
@@ -16088,10 +16126,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>7</v>
@@ -16106,28 +16144,28 @@
         <v>2</v>
       </c>
       <c r="M44" s="2">
-        <v>3500</v>
+        <v>850</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="P44" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q44" s="2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="R44" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S44" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T44" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
@@ -16142,7 +16180,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="2">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="Z44" s="2">
         <v>0</v>
@@ -16178,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AL44" s="2">
         <v>0</v>
@@ -16190,13 +16228,13 @@
         <v>10</v>
       </c>
       <c r="AO44" s="19" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AP44" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AQ44" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AR44" s="2">
         <v>0</v>
@@ -16224,10 +16262,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>7</v>
@@ -16242,28 +16280,28 @@
         <v>2</v>
       </c>
       <c r="M45" s="2">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <v>32</v>
+        <v>330</v>
       </c>
       <c r="P45" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q45" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
         <v>60</v>
       </c>
-      <c r="S45" s="2">
-        <v>20</v>
-      </c>
       <c r="T45" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="U45" s="2">
         <v>0</v>
@@ -16278,7 +16316,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="Z45" s="2">
         <v>0</v>
@@ -16314,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AL45" s="2">
         <v>0</v>
@@ -16326,13 +16364,13 @@
         <v>10</v>
       </c>
       <c r="AO45" s="19" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AP45" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AQ45" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR45" s="2">
         <v>0</v>
@@ -16360,10 +16398,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>7</v>
@@ -16378,13 +16416,13 @@
         <v>2</v>
       </c>
       <c r="M46" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P46" s="2">
         <v>0</v>
@@ -16393,10 +16431,10 @@
         <v>0</v>
       </c>
       <c r="R46" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S46" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T46" s="2">
         <v>0</v>
@@ -16420,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="AB46" s="3" t="s">
         <v>7</v>
@@ -16435,7 +16473,7 @@
         <v>7</v>
       </c>
       <c r="AF46" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="2">
         <v>0</v>
@@ -16462,13 +16500,13 @@
         <v>10</v>
       </c>
       <c r="AO46" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AP46" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AQ46" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AR46" s="2">
         <v>0</v>
@@ -16496,10 +16534,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>7</v>
@@ -16556,7 +16594,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>7</v>
@@ -16571,7 +16609,7 @@
         <v>7</v>
       </c>
       <c r="AF47" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG47" s="2">
         <v>0</v>
@@ -16598,13 +16636,13 @@
         <v>10</v>
       </c>
       <c r="AO47" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AP47" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AQ47" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR47" s="2">
         <v>0</v>
@@ -16623,7 +16661,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2">
         <v>10</v>
@@ -16632,10 +16670,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>7</v>
@@ -16650,22 +16688,22 @@
         <v>2</v>
       </c>
       <c r="M48" s="2">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P48" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="2">
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S48" s="2">
         <v>0</v>
@@ -16686,13 +16724,13 @@
         <v>0</v>
       </c>
       <c r="Y48" s="2">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="Z48" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>7</v>
@@ -16722,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AL48" s="2">
         <v>0</v>
@@ -16734,13 +16772,13 @@
         <v>10</v>
       </c>
       <c r="AO48" s="19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AP48" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AQ48" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AR48" s="2">
         <v>0</v>
@@ -16768,10 +16806,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>7</v>
@@ -16786,7 +16824,7 @@
         <v>2</v>
       </c>
       <c r="M49" s="2">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="N49" s="2">
         <v>0</v>
@@ -16795,13 +16833,13 @@
         <v>32</v>
       </c>
       <c r="P49" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q49" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R49" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S49" s="2">
         <v>0</v>
@@ -16822,11 +16860,11 @@
         <v>0</v>
       </c>
       <c r="Y49" s="2">
+        <v>130</v>
+      </c>
+      <c r="Z49" s="2">
         <v>50</v>
       </c>
-      <c r="Z49" s="2">
-        <v>0</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>7</v>
       </c>
@@ -16858,7 +16896,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AL49" s="2">
         <v>0</v>
@@ -16870,13 +16908,13 @@
         <v>10</v>
       </c>
       <c r="AO49" s="19" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="AP49" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AQ49" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AR49" s="2">
         <v>0</v>
@@ -16904,10 +16942,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>7</v>
@@ -16922,22 +16960,22 @@
         <v>2</v>
       </c>
       <c r="M50" s="2">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="N50" s="2">
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="P50" s="2">
         <v>0</v>
       </c>
       <c r="Q50" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R50" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S50" s="2">
         <v>0</v>
@@ -17006,13 +17044,13 @@
         <v>10</v>
       </c>
       <c r="AO50" s="19" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AP50" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AQ50" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AR50" s="2">
         <v>0</v>
@@ -17040,10 +17078,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>7</v>
@@ -17058,25 +17096,25 @@
         <v>2</v>
       </c>
       <c r="M51" s="2">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N51" s="2">
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="P51" s="2">
         <v>0</v>
       </c>
       <c r="Q51" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R51" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S51" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="T51" s="2">
         <v>0</v>
@@ -17094,7 +17132,7 @@
         <v>0</v>
       </c>
       <c r="Y51" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Z51" s="2">
         <v>0</v>
@@ -17130,7 +17168,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AL51" s="2">
         <v>0</v>
@@ -17142,13 +17180,13 @@
         <v>10</v>
       </c>
       <c r="AO51" s="19" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="AP51" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AQ51" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AR51" s="2">
         <v>0</v>
@@ -17176,10 +17214,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>7</v>
@@ -17194,25 +17232,25 @@
         <v>2</v>
       </c>
       <c r="M52" s="2">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="N52" s="2">
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="P52" s="2">
         <v>0</v>
       </c>
       <c r="Q52" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
       </c>
       <c r="S52" s="2">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -17230,7 +17268,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Z52" s="2">
         <v>0</v>
@@ -17266,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL52" s="2">
         <v>0</v>
@@ -17278,13 +17316,13 @@
         <v>10</v>
       </c>
       <c r="AO52" s="19" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="AP52" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AQ52" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AR52" s="2">
         <v>0</v>
@@ -17312,10 +17350,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>7</v>
@@ -17330,7 +17368,7 @@
         <v>2</v>
       </c>
       <c r="M53" s="2">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="N53" s="2">
         <v>0</v>
@@ -17414,13 +17452,13 @@
         <v>10</v>
       </c>
       <c r="AO53" s="19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AP53" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AQ53" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AR53" s="2">
         <v>0</v>
@@ -17439,22 +17477,22 @@
         <v>0</v>
       </c>
       <c r="D54" s="2">
-        <v>9999</v>
+        <v>200</v>
       </c>
       <c r="E54" s="2">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J54" s="2">
         <v>0</v>
@@ -17463,16 +17501,16 @@
         <v>1</v>
       </c>
       <c r="L54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" s="2">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
       </c>
       <c r="O54" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="P54" s="2">
         <v>0</v>
@@ -17481,10 +17519,10 @@
         <v>0</v>
       </c>
       <c r="R54" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S54" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
@@ -17502,7 +17540,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Z54" s="2">
         <v>0</v>
@@ -17538,7 +17576,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL54" s="2">
         <v>0</v>
@@ -17550,15 +17588,151 @@
         <v>10</v>
       </c>
       <c r="AO54" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP54" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ54" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:44" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="1"/>
+        <v>10053</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E55" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1</v>
+      </c>
+      <c r="M55" s="2">
+        <v>300</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="2">
+        <v>54</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>0</v>
+      </c>
+      <c r="R55" s="2">
+        <v>80</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0</v>
+      </c>
+      <c r="V55" s="2">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+      <c r="X55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>50</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO55" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="AP54" s="5" t="s">
+      <c r="AP55" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AQ54" s="4" t="s">
+      <c r="AQ55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AR54" s="2">
+      <c r="AR55" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A839B24-CBE5-4AC8-B29F-144000F612B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE329AD-6DAB-4952-AB2E-B41DD47EA8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="570" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="1245" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -2381,7 +2381,7 @@
   </si>
   <si>
     <t>&lt;color=#FF78B4&gt;ラベンダーのお花&lt;/color&gt;を採ってきてくれないかしら？
-お店の飾りに使うのよ～。</t>
+お店のドライフラワーに使うのよ～。</t>
     <rPh sb="22" eb="23">
       <t>ハナ</t>
     </rPh>
@@ -2391,10 +2391,7 @@
     <rPh sb="47" eb="48">
       <t>ミセ</t>
     </rPh>
-    <rPh sb="49" eb="50">
-      <t>カザ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
+    <rPh sb="57" eb="58">
       <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -10232,7 +10229,7 @@
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AQ10" sqref="AQ10"/>
+      <selection pane="bottomLeft" activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11656,7 +11653,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N11" s="2">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE329AD-6DAB-4952-AB2E-B41DD47EA8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C3C19F-8A72-4E8C-8617-3EC0FCD2CDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="1245" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -10226,10 +10226,10 @@
   </sheetPr>
   <dimension ref="A1:AR55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AQ11" sqref="AQ11"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E20" s="2">
         <v>6</v>
@@ -13013,7 +13013,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>1950</v>
+        <v>950</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
@@ -13285,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="M23" s="2">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>

--- a/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C3C19F-8A72-4E8C-8617-3EC0FCD2CDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C436BB44-133F-418F-AE78-1890583923D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="281">
   <si>
     <t>desc</t>
   </si>
@@ -2393,6 +2393,35 @@
     </rPh>
     <rPh sb="57" eb="58">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>financier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Financier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィナンシェが食べたい！</t>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、&lt;color=#FF78B4&gt;クララおばさん&lt;/color&gt;からのご依頼ね。
+焼きたてのフィナンシェが食べたいとのことだわ。</t>
+    <rPh sb="38" eb="40">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -10224,12 +10253,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR55"/>
+  <dimension ref="A1:AR56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10391,7 +10420,7 @@
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A55" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A56" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -10667,7 +10696,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B55" si="1">(ROW()-2)+10000</f>
+        <f t="shared" ref="B4:B56" si="1">(ROW()-2)+10000</f>
         <v>10002</v>
       </c>
       <c r="C4" s="2">
@@ -12989,19 +13018,19 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -13013,31 +13042,31 @@
         <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>950</v>
+        <v>800</v>
       </c>
       <c r="N21" s="2">
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
         <v>0</v>
       </c>
       <c r="S21" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="T21" s="2">
         <v>0</v>
       </c>
       <c r="U21" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="V21" s="2">
         <v>0</v>
@@ -13097,13 +13126,13 @@
         <v>10</v>
       </c>
       <c r="AO21" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AP21" s="5" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="AQ21" s="4" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="AR21" s="3">
         <v>0</v>
@@ -13119,7 +13148,7 @@
         <v>10020</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
@@ -13131,13 +13160,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -13149,22 +13178,22 @@
         <v>1</v>
       </c>
       <c r="M22" s="2">
-        <v>1200</v>
+        <v>950</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
       </c>
       <c r="O22" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="P22" s="2">
         <v>0</v>
       </c>
       <c r="Q22" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R22" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
@@ -13173,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V22" s="2">
         <v>0</v>
@@ -13221,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL22" s="3">
         <v>0</v>
@@ -13233,13 +13262,13 @@
         <v>10</v>
       </c>
       <c r="AO22" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AP22" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="AQ22" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AR22" s="3">
         <v>0</v>
@@ -13255,109 +13284,109 @@
         <v>10021</v>
       </c>
       <c r="C23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
       </c>
       <c r="E23" s="2">
+        <v>8</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1200</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>20</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>30</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>50</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="2">
         <v>10</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1</v>
-      </c>
-      <c r="M23" s="2">
-        <v>2500</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>100</v>
-      </c>
-      <c r="P23" s="2">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>50</v>
-      </c>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="2">
-        <v>12</v>
       </c>
       <c r="AL23" s="3">
         <v>0</v>
@@ -13369,13 +13398,13 @@
         <v>10</v>
       </c>
       <c r="AO23" s="19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AP23" s="5" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="AQ23" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AR23" s="3">
         <v>0</v>
@@ -13394,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
@@ -13403,13 +13432,13 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>7</v>
+        <v>152</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -13421,16 +13450,16 @@
         <v>1</v>
       </c>
       <c r="M24" s="2">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="N24" s="2">
         <v>0</v>
       </c>
       <c r="O24" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="Q24" s="2">
         <v>0</v>
@@ -13439,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T24" s="2">
         <v>0</v>
@@ -13454,10 +13483,10 @@
         <v>0</v>
       </c>
       <c r="X24" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Z24" s="2">
         <v>0</v>
@@ -13477,43 +13506,43 @@
       <c r="AE24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AF24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="3">
         <v>0</v>
       </c>
       <c r="AK24" s="2">
-        <v>3</v>
-      </c>
-      <c r="AL24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="2">
+        <v>12</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="3">
         <v>0</v>
       </c>
       <c r="AN24" s="2">
         <v>10</v>
       </c>
       <c r="AO24" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AP24" s="5" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="AQ24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR24" s="2">
+        <v>157</v>
+      </c>
+      <c r="AR24" s="3">
         <v>0</v>
       </c>
     </row>
@@ -13539,58 +13568,58 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>400</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
         <v>20</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
         <v>35</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
-        <v>1</v>
-      </c>
-      <c r="M25" s="2">
-        <v>300</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <v>32</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>0</v>
-      </c>
-      <c r="R25" s="2">
-        <v>70</v>
-      </c>
-      <c r="S25" s="2">
-        <v>0</v>
-      </c>
-      <c r="T25" s="2">
-        <v>0</v>
-      </c>
-      <c r="U25" s="2">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2">
-        <v>0</v>
-      </c>
-      <c r="X25" s="2">
-        <v>0</v>
       </c>
       <c r="Y25" s="2">
         <v>50</v>
@@ -13629,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="AK25" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL25" s="2">
         <v>0</v>
@@ -13641,13 +13670,13 @@
         <v>10</v>
       </c>
       <c r="AO25" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AP25" s="5" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AQ25" s="4" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AR25" s="2">
         <v>0</v>
@@ -13675,13 +13704,13 @@
         <v>0</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -13693,16 +13722,16 @@
         <v>1</v>
       </c>
       <c r="M26" s="2">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="N26" s="2">
         <v>0</v>
       </c>
       <c r="O26" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P26" s="2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2">
         <v>0</v>
@@ -13729,13 +13758,13 @@
         <v>0</v>
       </c>
       <c r="Y26" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z26" s="2">
         <v>0</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="AB26" s="3" t="s">
         <v>7</v>
@@ -13750,7 +13779,7 @@
         <v>7</v>
       </c>
       <c r="AF26" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="2">
         <v>0</v>
@@ -13777,13 +13806,13 @@
         <v>10</v>
       </c>
       <c r="AO26" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AP26" s="5" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="AQ26" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="AR26" s="2">
         <v>0</v>
@@ -13802,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
@@ -13811,10 +13840,10 @@
         <v>0</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>7</v>
@@ -13829,7 +13858,7 @@
         <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>550</v>
+        <v>750</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
@@ -13838,13 +13867,13 @@
         <v>0</v>
       </c>
       <c r="P27" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Q27" s="2">
         <v>0</v>
       </c>
       <c r="R27" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
@@ -13865,28 +13894,28 @@
         <v>0</v>
       </c>
       <c r="Y27" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF27" s="2">
         <v>30</v>
-      </c>
-      <c r="AA27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF27" s="2">
-        <v>0</v>
       </c>
       <c r="AG27" s="2">
         <v>0</v>
@@ -13913,13 +13942,13 @@
         <v>10</v>
       </c>
       <c r="AO27" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AP27" s="5" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="AQ27" s="4" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="AR27" s="2">
         <v>0</v>
@@ -13938,7 +13967,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
@@ -13947,13 +13976,13 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -13965,25 +13994,25 @@
         <v>1</v>
       </c>
       <c r="M28" s="2">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N28" s="2">
         <v>0</v>
       </c>
       <c r="O28" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2">
         <v>0</v>
       </c>
       <c r="Q28" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
       </c>
       <c r="S28" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="T28" s="2">
         <v>0</v>
@@ -14001,25 +14030,25 @@
         <v>0</v>
       </c>
       <c r="Y28" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Z28" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="AD28" s="3" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="AE28" s="3" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="AF28" s="2">
         <v>0</v>
@@ -14037,7 +14066,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AL28" s="2">
         <v>0</v>
@@ -14049,13 +14078,13 @@
         <v>10</v>
       </c>
       <c r="AO28" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AP28" s="5" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="AQ28" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="AR28" s="2">
         <v>0</v>
@@ -14083,13 +14112,13 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -14101,31 +14130,31 @@
         <v>1</v>
       </c>
       <c r="M29" s="2">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="N29" s="2">
         <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="P29" s="2">
         <v>0</v>
       </c>
       <c r="Q29" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
       </c>
       <c r="S29" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
       </c>
       <c r="U29" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
@@ -14137,25 +14166,25 @@
         <v>0</v>
       </c>
       <c r="Y29" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Z29" s="2">
         <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="AF29" s="2">
         <v>0</v>
@@ -14173,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="AK29" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AL29" s="2">
         <v>0</v>
@@ -14185,13 +14214,13 @@
         <v>10</v>
       </c>
       <c r="AO29" s="19" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="AP29" s="5" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AQ29" s="4" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="AR29" s="2">
         <v>0</v>
@@ -14219,13 +14248,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -14237,22 +14266,22 @@
         <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>550</v>
+        <v>700</v>
       </c>
       <c r="N30" s="2">
         <v>0</v>
       </c>
       <c r="O30" s="2">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="P30" s="2">
         <v>0</v>
       </c>
       <c r="Q30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R30" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
@@ -14261,7 +14290,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="V30" s="2">
         <v>0</v>
@@ -14321,13 +14350,13 @@
         <v>10</v>
       </c>
       <c r="AO30" s="19" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="AP30" s="5" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="AQ30" s="4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AR30" s="2">
         <v>0</v>
@@ -14343,10 +14372,10 @@
         <v>10029</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>9999</v>
+        <v>30</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
@@ -14355,10 +14384,10 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>7</v>
@@ -14370,16 +14399,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M31" s="2">
-        <v>15</v>
+        <v>550</v>
       </c>
       <c r="N31" s="2">
         <v>0</v>
       </c>
       <c r="O31" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P31" s="2">
         <v>0</v>
@@ -14388,7 +14417,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S31" s="2">
         <v>0</v>
@@ -14445,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="AK31" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL31" s="2">
         <v>0</v>
@@ -14457,13 +14486,13 @@
         <v>10</v>
       </c>
       <c r="AO31" s="19" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="AP31" s="5" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="AQ31" s="4" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="AR31" s="2">
         <v>0</v>
@@ -14479,10 +14508,10 @@
         <v>10030</v>
       </c>
       <c r="C32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>40</v>
+        <v>9999</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
@@ -14491,13 +14520,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -14506,16 +14535,16 @@
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M32" s="2">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2">
         <v>0</v>
@@ -14527,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="T32" s="2">
         <v>0</v>
@@ -14545,7 +14574,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="Z32" s="2">
         <v>0</v>
@@ -14593,13 +14622,13 @@
         <v>10</v>
       </c>
       <c r="AO32" s="19" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AP32" s="5" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="AQ32" s="4" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="AR32" s="2">
         <v>0</v>
@@ -14615,7 +14644,7 @@
         <v>10031</v>
       </c>
       <c r="C33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
         <v>40</v>
@@ -14627,13 +14656,13 @@
         <v>0</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -14645,13 +14674,13 @@
         <v>1</v>
       </c>
       <c r="M33" s="2">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N33" s="2">
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
@@ -14663,7 +14692,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
@@ -14681,7 +14710,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Z33" s="2">
         <v>0</v>
@@ -14717,7 +14746,7 @@
         <v>0</v>
       </c>
       <c r="AK33" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL33" s="2">
         <v>0</v>
@@ -14729,13 +14758,13 @@
         <v>10</v>
       </c>
       <c r="AO33" s="19" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AP33" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AQ33" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AR33" s="2">
         <v>0</v>
@@ -14763,10 +14792,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>7</v>
@@ -14778,10 +14807,10 @@
         <v>1</v>
       </c>
       <c r="L34" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" s="2">
-        <v>330</v>
+        <v>800</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
@@ -14853,7 +14882,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL34" s="2">
         <v>0</v>
@@ -14865,13 +14894,13 @@
         <v>10</v>
       </c>
       <c r="AO34" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AP34" s="5" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="AQ34" s="4" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="AR34" s="2">
         <v>0</v>
@@ -14887,10 +14916,10 @@
         <v>10033</v>
       </c>
       <c r="C35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
@@ -14899,13 +14928,13 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -14917,22 +14946,22 @@
         <v>2</v>
       </c>
       <c r="M35" s="2">
-        <v>850</v>
+        <v>330</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P35" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2">
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2">
         <v>0</v>
@@ -14989,7 +15018,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL35" s="2">
         <v>0</v>
@@ -15001,13 +15030,13 @@
         <v>10</v>
       </c>
       <c r="AO35" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AP35" s="5" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="AQ35" s="4" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="AR35" s="2">
         <v>0</v>
@@ -15035,13 +15064,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -15053,19 +15082,19 @@
         <v>2</v>
       </c>
       <c r="M36" s="2">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="P36" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q36" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R36" s="2">
         <v>60</v>
@@ -15137,13 +15166,13 @@
         <v>10</v>
       </c>
       <c r="AO36" s="19" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="AP36" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ36" s="4" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="AR36" s="2">
         <v>0</v>
@@ -15171,10 +15200,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>7</v>
@@ -15189,13 +15218,13 @@
         <v>2</v>
       </c>
       <c r="M37" s="2">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P37" s="2">
         <v>0</v>
@@ -15204,7 +15233,7 @@
         <v>30</v>
       </c>
       <c r="R37" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S37" s="2">
         <v>0</v>
@@ -15273,13 +15302,13 @@
         <v>10</v>
       </c>
       <c r="AO37" s="19" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AP37" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AQ37" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AR37" s="2">
         <v>0</v>
@@ -15307,10 +15336,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>7</v>
@@ -15331,13 +15360,13 @@
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="P38" s="2">
         <v>0</v>
       </c>
       <c r="Q38" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R38" s="2">
         <v>50</v>
@@ -15409,13 +15438,13 @@
         <v>10</v>
       </c>
       <c r="AO38" s="19" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AP38" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AQ38" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AR38" s="2">
         <v>0</v>
@@ -15443,10 +15472,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>7</v>
@@ -15461,25 +15490,25 @@
         <v>2</v>
       </c>
       <c r="M39" s="2">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="N39" s="2">
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="P39" s="2">
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="R39" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S39" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="T39" s="2">
         <v>0</v>
@@ -15497,7 +15526,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Z39" s="2">
         <v>0</v>
@@ -15545,13 +15574,13 @@
         <v>10</v>
       </c>
       <c r="AO39" s="19" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AP39" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AQ39" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AR39" s="2">
         <v>0</v>
@@ -15579,13 +15608,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -15597,25 +15626,25 @@
         <v>2</v>
       </c>
       <c r="M40" s="2">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="P40" s="2">
         <v>0</v>
       </c>
       <c r="Q40" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
       </c>
       <c r="S40" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
@@ -15633,7 +15662,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z40" s="2">
         <v>0</v>
@@ -15669,7 +15698,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AL40" s="2">
         <v>0</v>
@@ -15681,13 +15710,13 @@
         <v>10</v>
       </c>
       <c r="AO40" s="19" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AP40" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AQ40" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AR40" s="2">
         <v>0</v>
@@ -15715,13 +15744,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -15733,44 +15762,44 @@
         <v>2</v>
       </c>
       <c r="M41" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
       </c>
       <c r="O41" s="2">
+        <v>77</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
         <v>80</v>
       </c>
-      <c r="P41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>0</v>
-      </c>
-      <c r="R41" s="2">
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2">
         <v>80</v>
       </c>
-      <c r="S41" s="2">
-        <v>0</v>
-      </c>
-      <c r="T41" s="2">
-        <v>0</v>
-      </c>
-      <c r="U41" s="2">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2">
-        <v>0</v>
-      </c>
-      <c r="X41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>50</v>
-      </c>
       <c r="Z41" s="2">
         <v>0</v>
       </c>
@@ -15805,7 +15834,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AL41" s="2">
         <v>0</v>
@@ -15817,13 +15846,13 @@
         <v>10</v>
       </c>
       <c r="AO41" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AP41" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AQ41" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR41" s="2">
         <v>0</v>
@@ -15842,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E42" s="2">
         <v>10</v>
@@ -15851,10 +15880,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>7</v>
@@ -15875,7 +15904,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="P42" s="2">
         <v>0</v>
@@ -15884,7 +15913,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S42" s="2">
         <v>0</v>
@@ -15902,11 +15931,11 @@
         <v>0</v>
       </c>
       <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
         <v>50</v>
       </c>
-      <c r="Y42" s="2">
-        <v>70</v>
-      </c>
       <c r="Z42" s="2">
         <v>0</v>
       </c>
@@ -15941,7 +15970,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AL42" s="2">
         <v>0</v>
@@ -15953,13 +15982,13 @@
         <v>10</v>
       </c>
       <c r="AO42" s="19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AP42" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ42" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR42" s="2">
         <v>0</v>
@@ -15987,10 +16016,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>7</v>
@@ -16005,7 +16034,7 @@
         <v>2</v>
       </c>
       <c r="M43" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N43" s="2">
         <v>0</v>
@@ -16038,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y43" s="2">
         <v>70</v>
@@ -16092,10 +16121,10 @@
         <v>265</v>
       </c>
       <c r="AP43" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ43" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AR43" s="2">
         <v>0</v>
@@ -16123,10 +16152,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>7</v>
@@ -16141,22 +16170,22 @@
         <v>2</v>
       </c>
       <c r="M44" s="2">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P44" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="2">
         <v>0</v>
       </c>
       <c r="R44" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S44" s="2">
         <v>0</v>
@@ -16174,10 +16203,10 @@
         <v>0</v>
       </c>
       <c r="X44" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y44" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Z44" s="2">
         <v>0</v>
@@ -16225,13 +16254,13 @@
         <v>10</v>
       </c>
       <c r="AO44" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AP44" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AQ44" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AR44" s="2">
         <v>0</v>
@@ -16259,10 +16288,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>7</v>
@@ -16277,28 +16306,28 @@
         <v>2</v>
       </c>
       <c r="M45" s="2">
-        <v>3500</v>
+        <v>850</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="P45" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q45" s="2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="R45" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S45" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T45" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U45" s="2">
         <v>0</v>
@@ -16313,7 +16342,7 @@
         <v>0</v>
       </c>
       <c r="Y45" s="2">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="Z45" s="2">
         <v>0</v>
@@ -16349,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AL45" s="2">
         <v>0</v>
@@ -16361,13 +16390,13 @@
         <v>10</v>
       </c>
       <c r="AO45" s="19" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AP45" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AQ45" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AR45" s="2">
         <v>0</v>
@@ -16395,10 +16424,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>7</v>
@@ -16413,28 +16442,28 @@
         <v>2</v>
       </c>
       <c r="M46" s="2">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <v>32</v>
+        <v>330</v>
       </c>
       <c r="P46" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q46" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
         <v>60</v>
       </c>
-      <c r="S46" s="2">
-        <v>20</v>
-      </c>
       <c r="T46" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="U46" s="2">
         <v>0</v>
@@ -16449,7 +16478,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="Z46" s="2">
         <v>0</v>
@@ -16485,7 +16514,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AL46" s="2">
         <v>0</v>
@@ -16497,13 +16526,13 @@
         <v>10</v>
       </c>
       <c r="AO46" s="19" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AP46" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AQ46" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR46" s="2">
         <v>0</v>
@@ -16531,10 +16560,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>7</v>
@@ -16549,13 +16578,13 @@
         <v>2</v>
       </c>
       <c r="M47" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P47" s="2">
         <v>0</v>
@@ -16564,10 +16593,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S47" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T47" s="2">
         <v>0</v>
@@ -16591,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>7</v>
@@ -16606,7 +16635,7 @@
         <v>7</v>
       </c>
       <c r="AF47" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="2">
         <v>0</v>
@@ -16633,13 +16662,13 @@
         <v>10</v>
       </c>
       <c r="AO47" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AP47" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AQ47" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AR47" s="2">
         <v>0</v>
@@ -16667,10 +16696,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>7</v>
@@ -16727,7 +16756,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>7</v>
@@ -16742,7 +16771,7 @@
         <v>7</v>
       </c>
       <c r="AF48" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG48" s="2">
         <v>0</v>
@@ -16769,13 +16798,13 @@
         <v>10</v>
       </c>
       <c r="AO48" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AP48" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AQ48" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR48" s="2">
         <v>0</v>
@@ -16794,7 +16823,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2">
         <v>10</v>
@@ -16803,10 +16832,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>7</v>
@@ -16821,22 +16850,22 @@
         <v>2</v>
       </c>
       <c r="M49" s="2">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N49" s="2">
         <v>0</v>
       </c>
       <c r="O49" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P49" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="2">
         <v>0</v>
       </c>
       <c r="R49" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S49" s="2">
         <v>0</v>
@@ -16857,13 +16886,13 @@
         <v>0</v>
       </c>
       <c r="Y49" s="2">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="Z49" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA49" s="3" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>7</v>
@@ -16893,7 +16922,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AL49" s="2">
         <v>0</v>
@@ -16905,13 +16934,13 @@
         <v>10</v>
       </c>
       <c r="AO49" s="19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AP49" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AQ49" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AR49" s="2">
         <v>0</v>
@@ -16939,10 +16968,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>7</v>
@@ -16957,7 +16986,7 @@
         <v>2</v>
       </c>
       <c r="M50" s="2">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="N50" s="2">
         <v>0</v>
@@ -16966,13 +16995,13 @@
         <v>32</v>
       </c>
       <c r="P50" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q50" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R50" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2">
         <v>0</v>
@@ -16993,11 +17022,11 @@
         <v>0</v>
       </c>
       <c r="Y50" s="2">
+        <v>130</v>
+      </c>
+      <c r="Z50" s="2">
         <v>50</v>
       </c>
-      <c r="Z50" s="2">
-        <v>0</v>
-      </c>
       <c r="AA50" s="3" t="s">
         <v>7</v>
       </c>
@@ -17029,7 +17058,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AL50" s="2">
         <v>0</v>
@@ -17041,13 +17070,13 @@
         <v>10</v>
       </c>
       <c r="AO50" s="19" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="AP50" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AQ50" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AR50" s="2">
         <v>0</v>
@@ -17075,10 +17104,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>7</v>
@@ -17093,22 +17122,22 @@
         <v>2</v>
       </c>
       <c r="M51" s="2">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="N51" s="2">
         <v>0</v>
       </c>
       <c r="O51" s="2">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="P51" s="2">
         <v>0</v>
       </c>
       <c r="Q51" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R51" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
@@ -17177,13 +17206,13 @@
         <v>10</v>
       </c>
       <c r="AO51" s="19" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AP51" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AQ51" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AR51" s="2">
         <v>0</v>
@@ -17211,10 +17240,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>7</v>
@@ -17229,25 +17258,25 @@
         <v>2</v>
       </c>
       <c r="M52" s="2">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N52" s="2">
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="P52" s="2">
         <v>0</v>
       </c>
       <c r="Q52" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R52" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S52" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="T52" s="2">
         <v>0</v>
@@ -17265,7 +17294,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Z52" s="2">
         <v>0</v>
@@ -17301,7 +17330,7 @@
         <v>0</v>
       </c>
       <c r="AK52" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AL52" s="2">
         <v>0</v>
@@ -17313,13 +17342,13 @@
         <v>10</v>
       </c>
       <c r="AO52" s="19" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="AP52" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AQ52" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AR52" s="2">
         <v>0</v>
@@ -17347,10 +17376,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>7</v>
@@ -17365,25 +17394,25 @@
         <v>2</v>
       </c>
       <c r="M53" s="2">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="N53" s="2">
         <v>0</v>
       </c>
       <c r="O53" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="P53" s="2">
         <v>0</v>
       </c>
       <c r="Q53" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
       </c>
       <c r="S53" s="2">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
@@ -17401,7 +17430,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Z53" s="2">
         <v>0</v>
@@ -17437,7 +17466,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL53" s="2">
         <v>0</v>
@@ -17449,13 +17478,13 @@
         <v>10</v>
       </c>
       <c r="AO53" s="19" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="AP53" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AQ53" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AR53" s="2">
         <v>0</v>
@@ -17483,10 +17512,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>7</v>
@@ -17501,7 +17530,7 @@
         <v>2</v>
       </c>
       <c r="M54" s="2">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
@@ -17585,13 +17614,13 @@
         <v>10</v>
       </c>
       <c r="AO54" s="19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AP54" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AQ54" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AR54" s="2">
         <v>0</v>
@@ -17610,22 +17639,22 @@
         <v>0</v>
       </c>
       <c r="D55" s="2">
-        <v>9999</v>
+        <v>200</v>
       </c>
       <c r="E55" s="2">
-        <v>9999</v>
+        <v>10</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
@@ -17634,16 +17663,16 @@
         <v>1</v>
       </c>
       <c r="L55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" s="2">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="N55" s="2">
         <v>0</v>
       </c>
       <c r="O55" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="P55" s="2">
         <v>0</v>
@@ -17652,10 +17681,10 @@
         <v>0</v>
       </c>
       <c r="R55" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S55" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T55" s="2">
         <v>0</v>
@@ -17673,7 +17702,7 @@
         <v>0</v>
       </c>
       <c r="Y55" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Z55" s="2">
         <v>0</v>
@@ -17709,7 +17738,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL55" s="2">
         <v>0</v>
@@ -17721,15 +17750,151 @@
         <v>10</v>
       </c>
       <c r="AO55" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP55" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ55" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="1"/>
+        <v>10054</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E56" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1</v>
+      </c>
+      <c r="M56" s="2">
+        <v>300</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>54</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>0</v>
+      </c>
+      <c r="R56" s="2">
+        <v>80</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+      <c r="X56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>50</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO56" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="AP55" s="5" t="s">
+      <c r="AP56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AQ55" s="4" t="s">
+      <c r="AQ56" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AR55" s="2">
+      <c r="AR56" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C436BB44-133F-418F-AE78-1890583923D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA10FBC-1B26-4A52-86E0-0075A19F4510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="795" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -10256,9 +10256,9 @@
   <dimension ref="A1:AR56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11818,7 +11818,7 @@
         <v>1</v>
       </c>
       <c r="M12" s="12">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N12" s="12">
         <v>0</v>
@@ -11954,7 +11954,7 @@
         <v>1</v>
       </c>
       <c r="M13" s="12">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="N13" s="12">
         <v>0</v>
@@ -13559,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
@@ -13695,7 +13695,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
@@ -13831,7 +13831,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
@@ -13967,7 +13967,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
@@ -14103,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
@@ -14239,7 +14239,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
@@ -14375,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
@@ -14647,10 +14647,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F33" s="2">
         <v>0</v>
@@ -14783,10 +14783,10 @@
         <v>1</v>
       </c>
       <c r="D34" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F34" s="2">
         <v>0</v>
@@ -14919,10 +14919,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F35" s="2">
         <v>0</v>
@@ -15055,10 +15055,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F36" s="2">
         <v>0</v>
@@ -15191,10 +15191,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F37" s="2">
         <v>0</v>
@@ -15327,10 +15327,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
@@ -15463,10 +15463,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -15599,10 +15599,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -15735,10 +15735,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
@@ -15871,10 +15871,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2">
         <v>0</v>
@@ -16007,10 +16007,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F43" s="2">
         <v>0</v>
@@ -16143,10 +16143,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -16279,10 +16279,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F45" s="2">
         <v>0</v>
@@ -16415,10 +16415,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F46" s="2">
         <v>0</v>
@@ -16551,10 +16551,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F47" s="2">
         <v>0</v>
@@ -16687,10 +16687,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F48" s="2">
         <v>0</v>
@@ -16823,10 +16823,10 @@
         <v>0</v>
       </c>
       <c r="D49" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F49" s="2">
         <v>0</v>
@@ -16959,10 +16959,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F50" s="2">
         <v>0</v>
@@ -17095,10 +17095,10 @@
         <v>0</v>
       </c>
       <c r="D51" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2">
         <v>0</v>
@@ -17231,10 +17231,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
@@ -17367,10 +17367,10 @@
         <v>0</v>
       </c>
       <c r="D53" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F53" s="2">
         <v>0</v>
@@ -17503,10 +17503,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E54" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
@@ -17639,10 +17639,10 @@
         <v>0</v>
       </c>
       <c r="D55" s="2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
@@ -17912,10 +17912,10 @@
   </sheetPr>
   <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="AK1" sqref="AK1:AK1048576"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA10FBC-1B26-4A52-86E0-0075A19F4510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DC74F5-9B64-47B0-8400-6796EA491F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="795" windowWidth="24420" windowHeight="14295" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1020" windowWidth="25575" windowHeight="14325" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -10256,9 +10256,9 @@
   <dimension ref="A1:AR56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13287,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E23" s="2">
         <v>8</v>

--- a/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DC74F5-9B64-47B0-8400-6796EA491F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77856723-AD88-4B8A-8B61-7CEF39F2DD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1020" windowWidth="25575" windowHeight="14325" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1110" windowWidth="25575" windowHeight="14325" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="284">
   <si>
     <t>desc</t>
   </si>
@@ -2421,6 +2421,46 @@
       <t>ヤ</t>
     </rPh>
     <rPh sb="55" eb="56">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>frozen_orange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷凍みかんがほしい。</t>
+    <rPh sb="0" eb="2">
+      <t>レイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、とある&lt;color=#FF78B4&gt;貿易商&lt;/color&gt;の方からのご依頼ね。
+日持ちして冷たいフルーツを、船旅で食べたいそうよ。</t>
+    <rPh sb="22" eb="25">
+      <t>ボウエキショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ツメ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
       <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -10253,12 +10293,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AR56"/>
+  <dimension ref="A1:AR57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10420,7 +10460,7 @@
     </row>
     <row r="2" spans="1:44" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A56" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A57" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -10696,7 +10736,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B56" si="1">(ROW()-2)+10000</f>
+        <f t="shared" ref="B4:B57" si="1">(ROW()-2)+10000</f>
         <v>10002</v>
       </c>
       <c r="C4" s="2">
@@ -14511,7 +14551,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
@@ -14520,10 +14560,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>51</v>
+        <v>281</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>7</v>
@@ -14535,16 +14575,16 @@
         <v>1</v>
       </c>
       <c r="L32" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M32" s="2">
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="P32" s="2">
         <v>0</v>
@@ -14553,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S32" s="2">
         <v>0</v>
@@ -14610,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="AK32" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL32" s="2">
         <v>0</v>
@@ -14622,13 +14662,13 @@
         <v>10</v>
       </c>
       <c r="AO32" s="19" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="AP32" s="5" t="s">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="AQ32" s="4" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="AR32" s="2">
         <v>0</v>
@@ -14644,43 +14684,43 @@
         <v>10031</v>
       </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>0</v>
+        <v>9999</v>
       </c>
       <c r="E33" s="2">
+        <v>10</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>7</v>
+      </c>
+      <c r="M33" s="2">
         <v>15</v>
       </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2">
-        <v>1500</v>
-      </c>
       <c r="N33" s="2">
         <v>0</v>
       </c>
       <c r="O33" s="2">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2">
         <v>0</v>
@@ -14692,7 +14732,7 @@
         <v>0</v>
       </c>
       <c r="S33" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="T33" s="2">
         <v>0</v>
@@ -14710,7 +14750,7 @@
         <v>0</v>
       </c>
       <c r="Y33" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="Z33" s="2">
         <v>0</v>
@@ -14758,13 +14798,13 @@
         <v>10</v>
       </c>
       <c r="AO33" s="19" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AP33" s="5" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="AQ33" s="4" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="AR33" s="2">
         <v>0</v>
@@ -14780,7 +14820,7 @@
         <v>10032</v>
       </c>
       <c r="C34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2">
         <v>0</v>
@@ -14792,13 +14832,13 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -14810,13 +14850,13 @@
         <v>1</v>
       </c>
       <c r="M34" s="2">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="N34" s="2">
         <v>0</v>
       </c>
       <c r="O34" s="2">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="P34" s="2">
         <v>0</v>
@@ -14828,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="S34" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="T34" s="2">
         <v>0</v>
@@ -14846,7 +14886,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Z34" s="2">
         <v>0</v>
@@ -14882,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="AK34" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AL34" s="2">
         <v>0</v>
@@ -14894,13 +14934,13 @@
         <v>10</v>
       </c>
       <c r="AO34" s="19" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AP34" s="5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="AQ34" s="4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AR34" s="2">
         <v>0</v>
@@ -14928,10 +14968,10 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>7</v>
@@ -14943,10 +14983,10 @@
         <v>1</v>
       </c>
       <c r="L35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" s="2">
-        <v>330</v>
+        <v>800</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
@@ -15018,7 +15058,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL35" s="2">
         <v>0</v>
@@ -15030,13 +15070,13 @@
         <v>10</v>
       </c>
       <c r="AO35" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AP35" s="5" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="AQ35" s="4" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="AR35" s="2">
         <v>0</v>
@@ -15052,7 +15092,7 @@
         <v>10034</v>
       </c>
       <c r="C36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2">
         <v>0</v>
@@ -15064,13 +15104,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -15082,22 +15122,22 @@
         <v>2</v>
       </c>
       <c r="M36" s="2">
-        <v>850</v>
+        <v>330</v>
       </c>
       <c r="N36" s="2">
         <v>0</v>
       </c>
       <c r="O36" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="P36" s="2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2">
         <v>0</v>
       </c>
       <c r="R36" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
@@ -15154,7 +15194,7 @@
         <v>0</v>
       </c>
       <c r="AK36" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL36" s="2">
         <v>0</v>
@@ -15166,13 +15206,13 @@
         <v>10</v>
       </c>
       <c r="AO36" s="19" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AP36" s="5" t="s">
-        <v>181</v>
+        <v>54</v>
       </c>
       <c r="AQ36" s="4" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="AR36" s="2">
         <v>0</v>
@@ -15200,13 +15240,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>7</v>
+        <v>237</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -15218,19 +15258,19 @@
         <v>2</v>
       </c>
       <c r="M37" s="2">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="P37" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q37" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R37" s="2">
         <v>60</v>
@@ -15302,13 +15342,13 @@
         <v>10</v>
       </c>
       <c r="AO37" s="19" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="AP37" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ37" s="4" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="AR37" s="2">
         <v>0</v>
@@ -15330,16 +15370,16 @@
         <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F38" s="2">
         <v>0</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>7</v>
@@ -15354,13 +15394,13 @@
         <v>2</v>
       </c>
       <c r="M38" s="2">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P38" s="2">
         <v>0</v>
@@ -15369,7 +15409,7 @@
         <v>30</v>
       </c>
       <c r="R38" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S38" s="2">
         <v>0</v>
@@ -15438,13 +15478,13 @@
         <v>10</v>
       </c>
       <c r="AO38" s="19" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="AP38" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AQ38" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AR38" s="2">
         <v>0</v>
@@ -15472,10 +15512,10 @@
         <v>0</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>7</v>
@@ -15496,13 +15536,13 @@
         <v>0</v>
       </c>
       <c r="O39" s="2">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="P39" s="2">
         <v>0</v>
       </c>
       <c r="Q39" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R39" s="2">
         <v>50</v>
@@ -15574,13 +15614,13 @@
         <v>10</v>
       </c>
       <c r="AO39" s="19" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AP39" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AQ39" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AR39" s="2">
         <v>0</v>
@@ -15608,10 +15648,10 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>7</v>
@@ -15626,25 +15666,25 @@
         <v>2</v>
       </c>
       <c r="M40" s="2">
-        <v>1100</v>
+        <v>450</v>
       </c>
       <c r="N40" s="2">
         <v>0</v>
       </c>
       <c r="O40" s="2">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="P40" s="2">
         <v>0</v>
       </c>
       <c r="Q40" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="R40" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S40" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="T40" s="2">
         <v>0</v>
@@ -15662,7 +15702,7 @@
         <v>0</v>
       </c>
       <c r="Y40" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Z40" s="2">
         <v>0</v>
@@ -15710,13 +15750,13 @@
         <v>10</v>
       </c>
       <c r="AO40" s="19" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="AP40" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AQ40" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AR40" s="2">
         <v>0</v>
@@ -15738,19 +15778,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>177</v>
+        <v>7</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -15762,25 +15802,25 @@
         <v>2</v>
       </c>
       <c r="M41" s="2">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="N41" s="2">
         <v>0</v>
       </c>
       <c r="O41" s="2">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="P41" s="2">
         <v>0</v>
       </c>
       <c r="Q41" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
       </c>
       <c r="S41" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T41" s="2">
         <v>0</v>
@@ -15798,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z41" s="2">
         <v>0</v>
@@ -15834,7 +15874,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AL41" s="2">
         <v>0</v>
@@ -15846,13 +15886,13 @@
         <v>10</v>
       </c>
       <c r="AO41" s="19" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AP41" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AQ41" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AR41" s="2">
         <v>0</v>
@@ -15880,13 +15920,13 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -15898,44 +15938,44 @@
         <v>2</v>
       </c>
       <c r="M42" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="N42" s="2">
         <v>0</v>
       </c>
       <c r="O42" s="2">
+        <v>77</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>0</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
         <v>80</v>
       </c>
-      <c r="P42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>0</v>
-      </c>
-      <c r="R42" s="2">
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
+        <v>0</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
         <v>80</v>
       </c>
-      <c r="S42" s="2">
-        <v>0</v>
-      </c>
-      <c r="T42" s="2">
-        <v>0</v>
-      </c>
-      <c r="U42" s="2">
-        <v>0</v>
-      </c>
-      <c r="V42" s="2">
-        <v>0</v>
-      </c>
-      <c r="W42" s="2">
-        <v>0</v>
-      </c>
-      <c r="X42" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>50</v>
-      </c>
       <c r="Z42" s="2">
         <v>0</v>
       </c>
@@ -15970,7 +16010,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AL42" s="2">
         <v>0</v>
@@ -15982,13 +16022,13 @@
         <v>10</v>
       </c>
       <c r="AO42" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AP42" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AQ42" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AR42" s="2">
         <v>0</v>
@@ -16016,10 +16056,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>7</v>
@@ -16040,7 +16080,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="P43" s="2">
         <v>0</v>
@@ -16049,7 +16089,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="S43" s="2">
         <v>0</v>
@@ -16067,11 +16107,11 @@
         <v>0</v>
       </c>
       <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
         <v>50</v>
       </c>
-      <c r="Y43" s="2">
-        <v>70</v>
-      </c>
       <c r="Z43" s="2">
         <v>0</v>
       </c>
@@ -16106,7 +16146,7 @@
         <v>0</v>
       </c>
       <c r="AK43" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AL43" s="2">
         <v>0</v>
@@ -16118,13 +16158,13 @@
         <v>10</v>
       </c>
       <c r="AO43" s="19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AP43" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ43" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR43" s="2">
         <v>0</v>
@@ -16152,10 +16192,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>7</v>
@@ -16170,7 +16210,7 @@
         <v>2</v>
       </c>
       <c r="M44" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N44" s="2">
         <v>0</v>
@@ -16203,7 +16243,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y44" s="2">
         <v>70</v>
@@ -16257,10 +16297,10 @@
         <v>265</v>
       </c>
       <c r="AP44" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ44" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AR44" s="2">
         <v>0</v>
@@ -16288,10 +16328,10 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>7</v>
@@ -16306,22 +16346,22 @@
         <v>2</v>
       </c>
       <c r="M45" s="2">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="N45" s="2">
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P45" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="2">
         <v>0</v>
       </c>
       <c r="R45" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S45" s="2">
         <v>0</v>
@@ -16339,10 +16379,10 @@
         <v>0</v>
       </c>
       <c r="X45" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y45" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Z45" s="2">
         <v>0</v>
@@ -16390,13 +16430,13 @@
         <v>10</v>
       </c>
       <c r="AO45" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AP45" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AQ45" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AR45" s="2">
         <v>0</v>
@@ -16424,10 +16464,10 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>7</v>
@@ -16442,28 +16482,28 @@
         <v>2</v>
       </c>
       <c r="M46" s="2">
-        <v>3500</v>
+        <v>850</v>
       </c>
       <c r="N46" s="2">
         <v>0</v>
       </c>
       <c r="O46" s="2">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="P46" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q46" s="2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="R46" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S46" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T46" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="U46" s="2">
         <v>0</v>
@@ -16478,7 +16518,7 @@
         <v>0</v>
       </c>
       <c r="Y46" s="2">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="Z46" s="2">
         <v>0</v>
@@ -16514,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AL46" s="2">
         <v>0</v>
@@ -16526,13 +16566,13 @@
         <v>10</v>
       </c>
       <c r="AO46" s="19" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AP46" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AQ46" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AR46" s="2">
         <v>0</v>
@@ -16560,10 +16600,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>7</v>
@@ -16578,28 +16618,28 @@
         <v>2</v>
       </c>
       <c r="M47" s="2">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="N47" s="2">
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>32</v>
+        <v>330</v>
       </c>
       <c r="P47" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q47" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
         <v>60</v>
       </c>
-      <c r="S47" s="2">
-        <v>20</v>
-      </c>
       <c r="T47" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="U47" s="2">
         <v>0</v>
@@ -16614,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="Y47" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="Z47" s="2">
         <v>0</v>
@@ -16650,7 +16690,7 @@
         <v>0</v>
       </c>
       <c r="AK47" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AL47" s="2">
         <v>0</v>
@@ -16662,13 +16702,13 @@
         <v>10</v>
       </c>
       <c r="AO47" s="19" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AP47" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AQ47" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR47" s="2">
         <v>0</v>
@@ -16696,10 +16736,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>7</v>
@@ -16714,13 +16754,13 @@
         <v>2</v>
       </c>
       <c r="M48" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="P48" s="2">
         <v>0</v>
@@ -16729,10 +16769,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="S48" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T48" s="2">
         <v>0</v>
@@ -16756,7 +16796,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="AB48" s="3" t="s">
         <v>7</v>
@@ -16771,7 +16811,7 @@
         <v>7</v>
       </c>
       <c r="AF48" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="2">
         <v>0</v>
@@ -16798,13 +16838,13 @@
         <v>10</v>
       </c>
       <c r="AO48" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AP48" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AQ48" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AR48" s="2">
         <v>0</v>
@@ -16832,10 +16872,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>7</v>
@@ -16892,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="AA49" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>7</v>
@@ -16907,7 +16947,7 @@
         <v>7</v>
       </c>
       <c r="AF49" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG49" s="2">
         <v>0</v>
@@ -16934,13 +16974,13 @@
         <v>10</v>
       </c>
       <c r="AO49" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AP49" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AQ49" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AR49" s="2">
         <v>0</v>
@@ -16968,10 +17008,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>7</v>
@@ -16986,22 +17026,22 @@
         <v>2</v>
       </c>
       <c r="M50" s="2">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="N50" s="2">
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="P50" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="2">
         <v>0</v>
       </c>
       <c r="R50" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="S50" s="2">
         <v>0</v>
@@ -17022,13 +17062,13 @@
         <v>0</v>
       </c>
       <c r="Y50" s="2">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="Z50" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA50" s="3" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="AB50" s="3" t="s">
         <v>7</v>
@@ -17058,7 +17098,7 @@
         <v>0</v>
       </c>
       <c r="AK50" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AL50" s="2">
         <v>0</v>
@@ -17070,13 +17110,13 @@
         <v>10</v>
       </c>
       <c r="AO50" s="19" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AP50" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AQ50" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AR50" s="2">
         <v>0</v>
@@ -17104,10 +17144,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>7</v>
@@ -17122,7 +17162,7 @@
         <v>2</v>
       </c>
       <c r="M51" s="2">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="N51" s="2">
         <v>0</v>
@@ -17131,13 +17171,13 @@
         <v>32</v>
       </c>
       <c r="P51" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q51" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R51" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
@@ -17158,11 +17198,11 @@
         <v>0</v>
       </c>
       <c r="Y51" s="2">
+        <v>130</v>
+      </c>
+      <c r="Z51" s="2">
         <v>50</v>
       </c>
-      <c r="Z51" s="2">
-        <v>0</v>
-      </c>
       <c r="AA51" s="3" t="s">
         <v>7</v>
       </c>
@@ -17194,7 +17234,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AL51" s="2">
         <v>0</v>
@@ -17206,13 +17246,13 @@
         <v>10</v>
       </c>
       <c r="AO51" s="19" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="AP51" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AQ51" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AR51" s="2">
         <v>0</v>
@@ -17240,10 +17280,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>7</v>
@@ -17258,22 +17298,22 @@
         <v>2</v>
       </c>
       <c r="M52" s="2">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="N52" s="2">
         <v>0</v>
       </c>
       <c r="O52" s="2">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="P52" s="2">
         <v>0</v>
       </c>
       <c r="Q52" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R52" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
@@ -17342,13 +17382,13 @@
         <v>10</v>
       </c>
       <c r="AO52" s="19" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AP52" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AQ52" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AR52" s="2">
         <v>0</v>
@@ -17376,10 +17416,10 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>7</v>
@@ -17394,25 +17434,25 @@
         <v>2</v>
       </c>
       <c r="M53" s="2">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="N53" s="2">
         <v>0</v>
       </c>
       <c r="O53" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="P53" s="2">
         <v>0</v>
       </c>
       <c r="Q53" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="R53" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S53" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="T53" s="2">
         <v>0</v>
@@ -17430,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="Y53" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="Z53" s="2">
         <v>0</v>
@@ -17466,7 +17506,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AL53" s="2">
         <v>0</v>
@@ -17478,13 +17518,13 @@
         <v>10</v>
       </c>
       <c r="AO53" s="19" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="AP53" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AQ53" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AR53" s="2">
         <v>0</v>
@@ -17512,10 +17552,10 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>7</v>
@@ -17530,25 +17570,25 @@
         <v>2</v>
       </c>
       <c r="M54" s="2">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="N54" s="2">
         <v>0</v>
       </c>
       <c r="O54" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="P54" s="2">
         <v>0</v>
       </c>
       <c r="Q54" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
       </c>
       <c r="S54" s="2">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="T54" s="2">
         <v>0</v>
@@ -17566,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="Y54" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Z54" s="2">
         <v>0</v>
@@ -17602,7 +17642,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL54" s="2">
         <v>0</v>
@@ -17614,13 +17654,13 @@
         <v>10</v>
       </c>
       <c r="AO54" s="19" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="AP54" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AQ54" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AR54" s="2">
         <v>0</v>
@@ -17648,10 +17688,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>7</v>
@@ -17666,7 +17706,7 @@
         <v>2</v>
       </c>
       <c r="M55" s="2">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="N55" s="2">
         <v>0</v>
@@ -17750,13 +17790,13 @@
         <v>10</v>
       </c>
       <c r="AO55" s="19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AP55" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AQ55" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AR55" s="2">
         <v>0</v>
@@ -17775,22 +17815,22 @@
         <v>0</v>
       </c>
       <c r="D56" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2">
-        <v>9999</v>
+        <v>20</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J56" s="2">
         <v>0</v>
@@ -17799,16 +17839,16 @@
         <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56" s="2">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="N56" s="2">
         <v>0</v>
       </c>
       <c r="O56" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="P56" s="2">
         <v>0</v>
@@ -17817,10 +17857,10 @@
         <v>0</v>
       </c>
       <c r="R56" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S56" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T56" s="2">
         <v>0</v>
@@ -17838,7 +17878,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Z56" s="2">
         <v>0</v>
@@ -17874,7 +17914,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL56" s="2">
         <v>0</v>
@@ -17886,15 +17926,151 @@
         <v>10</v>
       </c>
       <c r="AO56" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP56" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ56" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AR56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="1"/>
+        <v>10055</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E57" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+      <c r="L57" s="2">
+        <v>1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>300</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="2">
+        <v>54</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>0</v>
+      </c>
+      <c r="R57" s="2">
+        <v>80</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+      <c r="X57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>50</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="2">
+        <v>5</v>
+      </c>
+      <c r="AL57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO57" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="AP56" s="5" t="s">
+      <c r="AP57" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AQ56" s="4" t="s">
+      <c r="AQ57" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AR56" s="2">
+      <c r="AR57" s="2">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
+++ b/Assets/Resources/Excel/Entity_QuestSetDataBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aritashogo\Documents\Unity\Okashi_Atlier2\Assets\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5973BB5-F1E2-4194-A81E-0057823A2EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01759042-EC1B-49E1-B108-0FD36F6C8E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="870" windowWidth="25560" windowHeight="14325" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="885" windowWidth="25560" windowHeight="14325" tabRatio="822" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_QuestSetData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3714" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="302">
   <si>
     <t>desc</t>
   </si>
@@ -2523,6 +2523,46 @@
   </si>
   <si>
     <t>lumi_banana_cookie</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷凍したフルーツがほしい。</t>
+    <rPh sb="0" eb="2">
+      <t>レイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、とある&lt;color=#FF78B4&gt;貿易商&lt;/color&gt;の方からのご依頼ね。
+船旅用に、日持ちするオレンジを探してるみたい。</t>
+    <rPh sb="22" eb="25">
+      <t>ボウエキショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>a_FrozenFruits</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -10679,12 +10719,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AT57"/>
+  <dimension ref="A1:AT58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10854,7 +10894,7 @@
     </row>
     <row r="2" spans="1:46" s="10" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
-        <f t="shared" ref="A2:A57" si="0">ROW()-2</f>
+        <f t="shared" ref="A2:A58" si="0">ROW()-2</f>
         <v>0</v>
       </c>
       <c r="B2" s="7">
@@ -11142,7 +11182,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B57" si="1">(ROW()-2)+10000</f>
+        <f t="shared" ref="B4:B58" si="1">(ROW()-2)+10000</f>
         <v>10002</v>
       </c>
       <c r="C4" s="2">
@@ -15155,10 +15195,10 @@
         <v>1</v>
       </c>
       <c r="N32" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32" s="2">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="P32" s="2">
         <v>0</v>
@@ -15248,7 +15288,7 @@
         <v>282</v>
       </c>
       <c r="AS32" s="4" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="AT32" s="2">
         <v>0</v>
@@ -16542,7 +16582,7 @@
         <v>10040</v>
       </c>
       <c r="C42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="2">
         <v>0</v>
@@ -16554,7 +16594,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>7</v>
@@ -16566,7 +16606,7 @@
         <v>7</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>177</v>
+        <v>301</v>
       </c>
       <c r="L42" s="2">
         <v>0</v>
@@ -16575,16 +16615,16 @@
         <v>1</v>
       </c>
       <c r="N42" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O42" s="2">
-        <v>1500</v>
+        <v>350</v>
       </c>
       <c r="P42" s="2">
         <v>0</v>
       </c>
       <c r="Q42" s="2">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
@@ -16593,10 +16633,10 @@
         <v>0</v>
       </c>
       <c r="T42" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U42" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="V42" s="2">
         <v>0</v>
@@ -16614,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AB42" s="2">
         <v>0</v>
@@ -16650,7 +16690,7 @@
         <v>0</v>
       </c>
       <c r="AM42" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AN42" s="2">
         <v>0</v>
@@ -16665,10 +16705,10 @@
         <v>266</v>
       </c>
       <c r="AR42" s="5" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
       <c r="AS42" s="4" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="AT42" s="2">
         <v>0</v>
@@ -16696,19 +16736,19 @@
         <v>0</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>298</v>
+        <v>7</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="L43" s="2">
         <v>0</v>
@@ -16720,44 +16760,44 @@
         <v>2</v>
       </c>
       <c r="O43" s="2">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="P43" s="2">
         <v>0</v>
       </c>
       <c r="Q43" s="2">
+        <v>77</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0</v>
+      </c>
+      <c r="U43" s="2">
         <v>80</v>
       </c>
-      <c r="R43" s="2">
-        <v>0</v>
-      </c>
-      <c r="S43" s="2">
-        <v>0</v>
-      </c>
-      <c r="T43" s="2">
+      <c r="V43" s="2">
+        <v>0</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
         <v>80</v>
       </c>
-      <c r="U43" s="2">
-        <v>0</v>
-      </c>
-      <c r="V43" s="2">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2">
-        <v>0</v>
-      </c>
-      <c r="X43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="2">
-        <v>50</v>
-      </c>
       <c r="AB43" s="2">
         <v>0</v>
       </c>
@@ -16792,7 +16832,7 @@
         <v>0</v>
       </c>
       <c r="AM43" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AN43" s="2">
         <v>0</v>
@@ -16804,13 +16844,13 @@
         <v>10</v>
       </c>
       <c r="AQ43" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AR43" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AS43" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AT43" s="2">
         <v>0</v>
@@ -16838,16 +16878,16 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>296</v>
+        <v>7</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>7</v>
@@ -16868,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="2">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="R44" s="2">
         <v>0</v>
@@ -16877,7 +16917,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U44" s="2">
         <v>0</v>
@@ -16895,11 +16935,11 @@
         <v>0</v>
       </c>
       <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
         <v>50</v>
       </c>
-      <c r="AA44" s="2">
-        <v>70</v>
-      </c>
       <c r="AB44" s="2">
         <v>0</v>
       </c>
@@ -16934,7 +16974,7 @@
         <v>0</v>
       </c>
       <c r="AM44" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AN44" s="2">
         <v>0</v>
@@ -16946,13 +16986,13 @@
         <v>10</v>
       </c>
       <c r="AQ44" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AR44" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AS44" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT44" s="2">
         <v>0</v>
@@ -16980,16 +17020,16 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>7</v>
@@ -17004,7 +17044,7 @@
         <v>2</v>
       </c>
       <c r="O45" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P45" s="2">
         <v>0</v>
@@ -17037,7 +17077,7 @@
         <v>0</v>
       </c>
       <c r="Z45" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AA45" s="2">
         <v>70</v>
@@ -17091,10 +17131,10 @@
         <v>265</v>
       </c>
       <c r="AR45" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AS45" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AT45" s="2">
         <v>0</v>
@@ -17122,13 +17162,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>7</v>
+        <v>297</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>7</v>
@@ -17146,22 +17186,22 @@
         <v>2</v>
       </c>
       <c r="O46" s="2">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="P46" s="2">
         <v>0</v>
       </c>
       <c r="Q46" s="2">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="R46" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S46" s="2">
         <v>0</v>
       </c>
       <c r="T46" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="U46" s="2">
         <v>0</v>
@@ -17179,10 +17219,10 @@
         <v>0</v>
       </c>
       <c r="Z46" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA46" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AB46" s="2">
         <v>0</v>
@@ -17230,13 +17270,13 @@
         <v>10</v>
       </c>
       <c r="AQ46" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AR46" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AS46" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AT46" s="2">
         <v>0</v>
@@ -17264,10 +17304,10 @@
         <v>0</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>7</v>
@@ -17288,28 +17328,28 @@
         <v>2</v>
       </c>
       <c r="O47" s="2">
-        <v>3500</v>
+        <v>850</v>
       </c>
       <c r="P47" s="2">
         <v>0</v>
       </c>
       <c r="Q47" s="2">
-        <v>330</v>
+        <v>32</v>
       </c>
       <c r="R47" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="S47" s="2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="T47" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U47" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="V47" s="2">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="W47" s="2">
         <v>0</v>
@@ -17324,7 +17364,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="2">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="AB47" s="2">
         <v>0</v>
@@ -17360,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="AM47" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AN47" s="2">
         <v>0</v>
@@ -17372,13 +17412,13 @@
         <v>10</v>
       </c>
       <c r="AQ47" s="14" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AR47" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AS47" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AT47" s="2">
         <v>0</v>
@@ -17406,10 +17446,10 @@
         <v>0</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>7</v>
@@ -17430,28 +17470,28 @@
         <v>2</v>
       </c>
       <c r="O48" s="2">
-        <v>500</v>
+        <v>3500</v>
       </c>
       <c r="P48" s="2">
         <v>0</v>
       </c>
       <c r="Q48" s="2">
-        <v>32</v>
+        <v>330</v>
       </c>
       <c r="R48" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S48" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
         <v>60</v>
       </c>
-      <c r="U48" s="2">
-        <v>20</v>
-      </c>
       <c r="V48" s="2">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="W48" s="2">
         <v>0</v>
@@ -17466,7 +17506,7 @@
         <v>0</v>
       </c>
       <c r="AA48" s="2">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AB48" s="2">
         <v>0</v>
@@ -17502,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="AM48" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AN48" s="2">
         <v>0</v>
@@ -17514,13 +17554,13 @@
         <v>10</v>
       </c>
       <c r="AQ48" s="14" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AR48" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AS48" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AT48" s="2">
         <v>0</v>
@@ -17548,10 +17588,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>7</v>
@@ -17572,13 +17612,13 @@
         <v>2</v>
       </c>
       <c r="O49" s="2">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P49" s="2">
         <v>0</v>
       </c>
       <c r="Q49" s="2">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="R49" s="2">
         <v>0</v>
@@ -17587,10 +17627,10 @@
         <v>0</v>
       </c>
       <c r="T49" s="2">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="U49" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V49" s="2">
         <v>0</v>
@@ -17614,7 +17654,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3" t="s">
-        <v>178</v>
+        <v>7</v>
       </c>
       <c r="AD49" s="3" t="s">
         <v>7</v>
@@ -17629,7 +17669,7 @@
         <v>7</v>
       </c>
       <c r="AH49" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="2">
         <v>0</v>
@@ -17656,13 +17696,13 @@
         <v>10</v>
       </c>
       <c r="AQ49" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AR49" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AS49" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AT49" s="2">
         <v>0</v>
@@ -17690,10 +17730,10 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>7</v>
@@ -17756,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="AC50" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AD50" s="3" t="s">
         <v>7</v>
@@ -17771,7 +17811,7 @@
         <v>7</v>
       </c>
       <c r="AH50" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI50" s="2">
         <v>0</v>
@@ -17798,13 +17838,13 @@
         <v>10</v>
       </c>
       <c r="AQ50" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AR50" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS50" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AT50" s="2">
         <v>0</v>
@@ -17832,10 +17872,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>7</v>
@@ -17856,22 +17896,22 @@
         <v>2</v>
       </c>
       <c r="O51" s="2">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="P51" s="2">
         <v>0</v>
       </c>
       <c r="Q51" s="2">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="R51" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
       </c>
       <c r="T51" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="U51" s="2">
         <v>0</v>
@@ -17892,13 +17932,13 @@
         <v>0</v>
       </c>
       <c r="AA51" s="2">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AB51" s="2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC51" s="3" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="AD51" s="3" t="s">
         <v>7</v>
@@ -17928,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="AM51" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AN51" s="2">
         <v>0</v>
@@ -17940,13 +17980,13 @@
         <v>10</v>
       </c>
       <c r="AQ51" s="14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AR51" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AS51" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AT51" s="2">
         <v>0</v>
@@ -17974,10 +18014,10 @@
         <v>0</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>7</v>
@@ -17998,7 +18038,7 @@
         <v>2</v>
       </c>
       <c r="O52" s="2">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="P52" s="2">
         <v>0</v>
@@ -18007,13 +18047,13 @@
         <v>32</v>
       </c>
       <c r="R52" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S52" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T52" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U52" s="2">
         <v>0</v>
@@ -18034,11 +18074,11 @@
         <v>0</v>
       </c>
       <c r="AA52" s="2">
+        <v>130</v>
+      </c>
+      <c r="AB52" s="2">
         <v>50</v>
       </c>
-      <c r="AB52" s="2">
-        <v>0</v>
-      </c>
       <c r="AC52" s="3" t="s">
         <v>7</v>
       </c>
@@ -18070,7 +18110,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AN52" s="2">
         <v>0</v>
@@ -18082,13 +18122,13 @@
         <v>10</v>
       </c>
       <c r="AQ52" s="14" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="AR52" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AS52" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AT52" s="2">
         <v>0</v>
@@ -18116,13 +18156,13 @@
         <v>0</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>294</v>
+        <v>7</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>7</v>
@@ -18140,22 +18180,22 @@
         <v>2</v>
       </c>
       <c r="O53" s="2">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="P53" s="2">
         <v>0</v>
       </c>
       <c r="Q53" s="2">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
       </c>
       <c r="S53" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T53" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="U53" s="2">
         <v>0</v>
@@ -18224,13 +18264,13 @@
         <v>10</v>
       </c>
       <c r="AQ53" s="14" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AR53" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AS53" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AT53" s="2">
         <v>0</v>
@@ -18258,13 +18298,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>7</v>
+        <v>294</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>7</v>
@@ -18282,25 +18322,25 @@
         <v>2</v>
       </c>
       <c r="O54" s="2">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="P54" s="2">
         <v>0</v>
       </c>
       <c r="Q54" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
       </c>
       <c r="S54" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T54" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U54" s="2">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="V54" s="2">
         <v>0</v>
@@ -18318,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AA54" s="2">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AB54" s="2">
         <v>0</v>
@@ -18354,7 +18394,7 @@
         <v>0</v>
       </c>
       <c r="AM54" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AN54" s="2">
         <v>0</v>
@@ -18366,13 +18406,13 @@
         <v>10</v>
       </c>
       <c r="AQ54" s="14" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="AR54" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AS54" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AT54" s="2">
         <v>0</v>
@@ -18400,10 +18440,10 @@
         <v>0</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>7</v>
@@ -18424,25 +18464,25 @@
         <v>2</v>
       </c>
       <c r="O55" s="2">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="P55" s="2">
         <v>0</v>
       </c>
       <c r="Q55" s="2">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="R55" s="2">
         <v>0</v>
       </c>
       <c r="S55" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T55" s="2">
         <v>0</v>
       </c>
       <c r="U55" s="2">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="V55" s="2">
         <v>0</v>
@@ -18460,7 +18500,7 @@
         <v>0</v>
       </c>
       <c r="AA55" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AB55" s="2">
         <v>0</v>
@@ -18496,7 +18536,7 @@
         <v>0</v>
       </c>
       <c r="AM55" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN55" s="2">
         <v>0</v>
@@ -18508,13 +18548,13 @@
         <v>10</v>
       </c>
       <c r="AQ55" s="14" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="AR55" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AS55" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AT55" s="2">
         <v>0</v>
@@ -18542,10 +18582,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>7</v>
@@ -18566,7 +18606,7 @@
         <v>2</v>
       </c>
       <c r="O56" s="2">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="P56" s="2">
         <v>0</v>
@@ -18650,13 +18690,13 @@
         <v>10</v>
       </c>
       <c r="AQ56" s="14" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AR56" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AS56" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AT56" s="2">
         <v>0</v>
@@ -18675,19 +18715,19 @@
         <v>0</v>
       </c>
       <c r="D57" s="2">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2">
-        <v>9999</v>
+        <v>20</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>7</v>
@@ -18696,7 +18736,7 @@
         <v>7</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L57" s="2">
         <v>0</v>
@@ -18705,16 +18745,16 @@
         <v>1</v>
       </c>
       <c r="N57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57" s="2">
-        <v>300</v>
+        <v>2000</v>
       </c>
       <c r="P57" s="2">
         <v>0</v>
       </c>
       <c r="Q57" s="2">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="R57" s="2">
         <v>0</v>
@@ -18723,10 +18763,10 @@
         <v>0</v>
       </c>
       <c r="T57" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="U57" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="V57" s="2">
         <v>0</v>
@@ -18744,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="AA57" s="2">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AB57" s="2">
         <v>0</v>
@@ -18780,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="AM57" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AN57" s="2">
         <v>0</v>
@@ -18792,15 +18832,157 @@
         <v>10</v>
       </c>
       <c r="AQ57" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="AR57" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS57" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="1"/>
+        <v>10056</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>9999</v>
+      </c>
+      <c r="E58" s="2">
+        <v>9999</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1</v>
+      </c>
+      <c r="N58" s="2">
+        <v>1</v>
+      </c>
+      <c r="O58" s="2">
+        <v>300</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>54</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+      <c r="X58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>50</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="2">
+        <v>10</v>
+      </c>
+      <c r="AQ58" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="AR57" s="5" t="s">
+      <c r="AR58" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AS57" s="4" t="s">
+      <c r="AS58" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AT57" s="2">
+      <c r="AT58" s="2">
         <v>1</v>
       </c>
     </row>
